--- a/DDS-2.1(Arton)/Омега протокол.xlsx
+++ b/DDS-2.1(Arton)/Омега протокол.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC9D3C-5FC8-486A-B7E2-C233CD3D3271}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C03D6F-0F66-4FCF-8566-8A7785CD261A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,31 +1490,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,42 +1544,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,26 +1562,32 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,43 +1604,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,7 +1936,7 @@
   </sheetPr>
   <dimension ref="B2:FA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="BB28" sqref="BB28"/>
     </sheetView>
   </sheetViews>
@@ -1954,23 +1954,23 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
+      <c r="E3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
       <c r="R3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2090,23 +2090,23 @@
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
+      <c r="E7" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
       <c r="R7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2251,35 +2251,35 @@
       <c r="S11" s="61"/>
     </row>
     <row r="12" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="143" t="s">
+      <c r="M12" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
     </row>
     <row r="13" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143" t="s">
+      <c r="E13" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
     </row>
     <row r="14" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="9">
@@ -2325,143 +2325,143 @@
         <v>13</v>
       </c>
       <c r="R14" s="12"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="138"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="143"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="138"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="142"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="143"/>
       <c r="AJ14" s="12"/>
-      <c r="AK14" s="178"/>
-      <c r="AL14" s="178"/>
-      <c r="AM14" s="178"/>
-      <c r="AN14" s="178"/>
-      <c r="AO14" s="178"/>
-      <c r="AP14" s="178"/>
-      <c r="AQ14" s="178"/>
-      <c r="AR14" s="179"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="161"/>
+      <c r="AO14" s="161"/>
+      <c r="AP14" s="161"/>
+      <c r="AQ14" s="161"/>
+      <c r="AR14" s="162"/>
       <c r="AS14" s="12"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="138"/>
+      <c r="AT14" s="142"/>
+      <c r="AU14" s="142"/>
+      <c r="AV14" s="142"/>
+      <c r="AW14" s="142"/>
+      <c r="AX14" s="142"/>
+      <c r="AY14" s="142"/>
+      <c r="AZ14" s="142"/>
+      <c r="BA14" s="143"/>
       <c r="BB14" s="12"/>
-      <c r="BC14" s="136"/>
-      <c r="BD14" s="136"/>
-      <c r="BE14" s="136"/>
-      <c r="BF14" s="136"/>
-      <c r="BG14" s="136"/>
-      <c r="BH14" s="136"/>
-      <c r="BI14" s="136"/>
-      <c r="BJ14" s="138"/>
+      <c r="BC14" s="142"/>
+      <c r="BD14" s="142"/>
+      <c r="BE14" s="142"/>
+      <c r="BF14" s="142"/>
+      <c r="BG14" s="142"/>
+      <c r="BH14" s="142"/>
+      <c r="BI14" s="142"/>
+      <c r="BJ14" s="143"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="136"/>
-      <c r="BM14" s="136"/>
-      <c r="BN14" s="136"/>
-      <c r="BO14" s="136"/>
-      <c r="BP14" s="136"/>
-      <c r="BQ14" s="136"/>
-      <c r="BR14" s="136"/>
-      <c r="BS14" s="138"/>
+      <c r="BL14" s="142"/>
+      <c r="BM14" s="142"/>
+      <c r="BN14" s="142"/>
+      <c r="BO14" s="142"/>
+      <c r="BP14" s="142"/>
+      <c r="BQ14" s="142"/>
+      <c r="BR14" s="142"/>
+      <c r="BS14" s="143"/>
       <c r="BT14" s="12"/>
-      <c r="BU14" s="136"/>
-      <c r="BV14" s="136"/>
-      <c r="BW14" s="136"/>
-      <c r="BX14" s="136"/>
-      <c r="BY14" s="136"/>
-      <c r="BZ14" s="136"/>
-      <c r="CA14" s="136"/>
-      <c r="CB14" s="138"/>
+      <c r="BU14" s="142"/>
+      <c r="BV14" s="142"/>
+      <c r="BW14" s="142"/>
+      <c r="BX14" s="142"/>
+      <c r="BY14" s="142"/>
+      <c r="BZ14" s="142"/>
+      <c r="CA14" s="142"/>
+      <c r="CB14" s="143"/>
       <c r="CC14" s="12"/>
-      <c r="CD14" s="178"/>
-      <c r="CE14" s="178"/>
-      <c r="CF14" s="178"/>
-      <c r="CG14" s="178"/>
-      <c r="CH14" s="178"/>
-      <c r="CI14" s="178"/>
-      <c r="CJ14" s="178"/>
-      <c r="CK14" s="179"/>
+      <c r="CD14" s="161"/>
+      <c r="CE14" s="161"/>
+      <c r="CF14" s="161"/>
+      <c r="CG14" s="161"/>
+      <c r="CH14" s="161"/>
+      <c r="CI14" s="161"/>
+      <c r="CJ14" s="161"/>
+      <c r="CK14" s="162"/>
       <c r="CL14" s="12"/>
-      <c r="CM14" s="136"/>
-      <c r="CN14" s="136"/>
-      <c r="CO14" s="136"/>
-      <c r="CP14" s="136"/>
-      <c r="CQ14" s="136"/>
-      <c r="CR14" s="136"/>
-      <c r="CS14" s="136"/>
-      <c r="CT14" s="138"/>
+      <c r="CM14" s="142"/>
+      <c r="CN14" s="142"/>
+      <c r="CO14" s="142"/>
+      <c r="CP14" s="142"/>
+      <c r="CQ14" s="142"/>
+      <c r="CR14" s="142"/>
+      <c r="CS14" s="142"/>
+      <c r="CT14" s="143"/>
       <c r="CU14" s="12"/>
-      <c r="CV14" s="136"/>
-      <c r="CW14" s="136"/>
-      <c r="CX14" s="136"/>
-      <c r="CY14" s="136"/>
-      <c r="CZ14" s="136"/>
-      <c r="DA14" s="136"/>
-      <c r="DB14" s="136"/>
-      <c r="DC14" s="138"/>
+      <c r="CV14" s="142"/>
+      <c r="CW14" s="142"/>
+      <c r="CX14" s="142"/>
+      <c r="CY14" s="142"/>
+      <c r="CZ14" s="142"/>
+      <c r="DA14" s="142"/>
+      <c r="DB14" s="142"/>
+      <c r="DC14" s="143"/>
       <c r="DD14" s="12"/>
-      <c r="DE14" s="135"/>
-      <c r="DF14" s="136"/>
-      <c r="DG14" s="136"/>
-      <c r="DH14" s="136"/>
-      <c r="DI14" s="136"/>
-      <c r="DJ14" s="136"/>
-      <c r="DK14" s="136"/>
-      <c r="DL14" s="137"/>
+      <c r="DE14" s="186"/>
+      <c r="DF14" s="142"/>
+      <c r="DG14" s="142"/>
+      <c r="DH14" s="142"/>
+      <c r="DI14" s="142"/>
+      <c r="DJ14" s="142"/>
+      <c r="DK14" s="142"/>
+      <c r="DL14" s="187"/>
       <c r="DM14" s="12"/>
-      <c r="DN14" s="135"/>
-      <c r="DO14" s="136"/>
-      <c r="DP14" s="136"/>
-      <c r="DQ14" s="136"/>
-      <c r="DR14" s="136"/>
-      <c r="DS14" s="136"/>
-      <c r="DT14" s="136"/>
-      <c r="DU14" s="137"/>
+      <c r="DN14" s="186"/>
+      <c r="DO14" s="142"/>
+      <c r="DP14" s="142"/>
+      <c r="DQ14" s="142"/>
+      <c r="DR14" s="142"/>
+      <c r="DS14" s="142"/>
+      <c r="DT14" s="142"/>
+      <c r="DU14" s="187"/>
       <c r="DV14" s="12"/>
-      <c r="DW14" s="136"/>
-      <c r="DX14" s="136"/>
-      <c r="DY14" s="136"/>
-      <c r="DZ14" s="136"/>
-      <c r="EA14" s="136"/>
-      <c r="EB14" s="136"/>
-      <c r="EC14" s="136"/>
-      <c r="ED14" s="138"/>
+      <c r="DW14" s="142"/>
+      <c r="DX14" s="142"/>
+      <c r="DY14" s="142"/>
+      <c r="DZ14" s="142"/>
+      <c r="EA14" s="142"/>
+      <c r="EB14" s="142"/>
+      <c r="EC14" s="142"/>
+      <c r="ED14" s="143"/>
       <c r="EE14" s="12"/>
-      <c r="EF14" s="136"/>
-      <c r="EG14" s="136"/>
-      <c r="EH14" s="136"/>
-      <c r="EI14" s="136"/>
-      <c r="EJ14" s="136"/>
-      <c r="EK14" s="136"/>
-      <c r="EL14" s="136"/>
-      <c r="EM14" s="138"/>
+      <c r="EF14" s="142"/>
+      <c r="EG14" s="142"/>
+      <c r="EH14" s="142"/>
+      <c r="EI14" s="142"/>
+      <c r="EJ14" s="142"/>
+      <c r="EK14" s="142"/>
+      <c r="EL14" s="142"/>
+      <c r="EM14" s="143"/>
       <c r="EN14" s="12"/>
-      <c r="EO14" s="136"/>
-      <c r="EP14" s="136"/>
-      <c r="EQ14" s="136"/>
-      <c r="ER14" s="136"/>
-      <c r="ES14" s="136"/>
-      <c r="ET14" s="136"/>
-      <c r="EU14" s="136"/>
-      <c r="EV14" s="138"/>
+      <c r="EO14" s="142"/>
+      <c r="EP14" s="142"/>
+      <c r="EQ14" s="142"/>
+      <c r="ER14" s="142"/>
+      <c r="ES14" s="142"/>
+      <c r="ET14" s="142"/>
+      <c r="EU14" s="142"/>
+      <c r="EV14" s="143"/>
     </row>
     <row r="15" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="135" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="73"/>
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="16" spans="2:152" x14ac:dyDescent="0.25">
-      <c r="B16" s="176"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="75"/>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -3137,27 +3137,27 @@
       </c>
     </row>
     <row r="17" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B17" s="176"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="75"/>
       <c r="D17" s="61"/>
     </row>
     <row r="18" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B18" s="176"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="75"/>
       <c r="D18" s="61"/>
     </row>
     <row r="19" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B19" s="176"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="75"/>
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B20" s="176"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="75"/>
       <c r="D20" s="61"/>
     </row>
     <row r="21" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="177"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="77"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -3217,35 +3217,35 @@
       <c r="S23" s="61"/>
     </row>
     <row r="24" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="143" t="s">
+      <c r="M24" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
     </row>
     <row r="25" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143" t="s">
+      <c r="E25" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
     </row>
     <row r="26" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="9">
@@ -3291,71 +3291,71 @@
         <v>13</v>
       </c>
       <c r="R26" s="12"/>
-      <c r="S26" s="184" t="s">
+      <c r="S26" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="184"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="184"/>
-      <c r="X26" s="184"/>
-      <c r="Y26" s="184"/>
-      <c r="Z26" s="185"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="164"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="182" t="s">
+      <c r="AB26" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="182"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="146"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="146" t="s">
+      <c r="AK26" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="146"/>
-      <c r="AO26" s="146"/>
-      <c r="AP26" s="146"/>
-      <c r="AQ26" s="146"/>
-      <c r="AR26" s="147"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="138"/>
+      <c r="AR26" s="139"/>
       <c r="AS26" s="12"/>
-      <c r="AT26" s="186" t="s">
+      <c r="AT26" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="186"/>
-      <c r="AV26" s="186"/>
-      <c r="AW26" s="186"/>
-      <c r="AX26" s="186"/>
-      <c r="AY26" s="186"/>
-      <c r="AZ26" s="186"/>
-      <c r="BA26" s="187"/>
+      <c r="AU26" s="140"/>
+      <c r="AV26" s="140"/>
+      <c r="AW26" s="140"/>
+      <c r="AX26" s="140"/>
+      <c r="AY26" s="140"/>
+      <c r="AZ26" s="140"/>
+      <c r="BA26" s="141"/>
       <c r="BB26" s="12"/>
-      <c r="BC26" s="136"/>
-      <c r="BD26" s="136"/>
-      <c r="BE26" s="136"/>
-      <c r="BF26" s="136"/>
-      <c r="BG26" s="136"/>
-      <c r="BH26" s="136"/>
-      <c r="BI26" s="136"/>
-      <c r="BJ26" s="138"/>
+      <c r="BC26" s="142"/>
+      <c r="BD26" s="142"/>
+      <c r="BE26" s="142"/>
+      <c r="BF26" s="142"/>
+      <c r="BG26" s="142"/>
+      <c r="BH26" s="142"/>
+      <c r="BI26" s="142"/>
+      <c r="BJ26" s="143"/>
       <c r="BK26" s="12"/>
-      <c r="BL26" s="136"/>
-      <c r="BM26" s="136"/>
-      <c r="BN26" s="136"/>
-      <c r="BO26" s="136"/>
-      <c r="BP26" s="136"/>
-      <c r="BQ26" s="136"/>
-      <c r="BR26" s="136"/>
-      <c r="BS26" s="138"/>
+      <c r="BL26" s="142"/>
+      <c r="BM26" s="142"/>
+      <c r="BN26" s="142"/>
+      <c r="BO26" s="142"/>
+      <c r="BP26" s="142"/>
+      <c r="BQ26" s="142"/>
+      <c r="BR26" s="142"/>
+      <c r="BS26" s="143"/>
       <c r="BT26" s="12"/>
     </row>
     <row r="27" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="135" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="73"/>
@@ -3568,7 +3568,7 @@
       </c>
     </row>
     <row r="28" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B28" s="176"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="75"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -3662,26 +3662,26 @@
       <c r="BT28" s="89"/>
     </row>
     <row r="29" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B29" s="176"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="75"/>
       <c r="D29" s="61"/>
     </row>
     <row r="30" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B30" s="176"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="75"/>
       <c r="D30" s="61"/>
     </row>
     <row r="31" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B31" s="176"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="75"/>
       <c r="D31" s="61"/>
     </row>
     <row r="32" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B32" s="176"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="177"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="77"/>
     </row>
     <row r="34" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3697,142 +3697,142 @@
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143" t="s">
+      <c r="E37" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="160"/>
     </row>
     <row r="38" spans="2:100" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143" t="s">
+      <c r="E38" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="160"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="144" t="s">
+      <c r="S38" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="145"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="152"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="136"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="138"/>
+      <c r="AB38" s="142"/>
+      <c r="AC38" s="142"/>
+      <c r="AD38" s="142"/>
+      <c r="AE38" s="142"/>
+      <c r="AF38" s="142"/>
+      <c r="AG38" s="142"/>
+      <c r="AH38" s="142"/>
+      <c r="AI38" s="143"/>
       <c r="AJ38" s="12"/>
-      <c r="AK38" s="146" t="s">
+      <c r="AK38" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="AL38" s="146"/>
-      <c r="AM38" s="146"/>
-      <c r="AN38" s="146"/>
-      <c r="AO38" s="146"/>
-      <c r="AP38" s="146"/>
-      <c r="AQ38" s="146"/>
-      <c r="AR38" s="147"/>
+      <c r="AL38" s="138"/>
+      <c r="AM38" s="138"/>
+      <c r="AN38" s="138"/>
+      <c r="AO38" s="138"/>
+      <c r="AP38" s="138"/>
+      <c r="AQ38" s="138"/>
+      <c r="AR38" s="139"/>
       <c r="AS38" s="12"/>
-      <c r="AT38" s="170" t="s">
+      <c r="AT38" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="AU38" s="170"/>
-      <c r="AV38" s="170"/>
-      <c r="AW38" s="170"/>
-      <c r="AX38" s="170"/>
-      <c r="AY38" s="170"/>
-      <c r="AZ38" s="170"/>
-      <c r="BA38" s="171"/>
+      <c r="AU38" s="168"/>
+      <c r="AV38" s="168"/>
+      <c r="AW38" s="168"/>
+      <c r="AX38" s="168"/>
+      <c r="AY38" s="168"/>
+      <c r="AZ38" s="168"/>
+      <c r="BA38" s="169"/>
       <c r="BB38" s="12"/>
-      <c r="BC38" s="161" t="s">
+      <c r="BC38" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="BD38" s="161"/>
-      <c r="BE38" s="161"/>
-      <c r="BF38" s="161"/>
-      <c r="BG38" s="161"/>
-      <c r="BH38" s="161"/>
-      <c r="BI38" s="161"/>
-      <c r="BJ38" s="162"/>
+      <c r="BD38" s="157"/>
+      <c r="BE38" s="157"/>
+      <c r="BF38" s="157"/>
+      <c r="BG38" s="157"/>
+      <c r="BH38" s="157"/>
+      <c r="BI38" s="157"/>
+      <c r="BJ38" s="158"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="144" t="s">
+      <c r="BL38" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="BM38" s="144"/>
-      <c r="BN38" s="144"/>
-      <c r="BO38" s="144"/>
-      <c r="BP38" s="144"/>
-      <c r="BQ38" s="144"/>
-      <c r="BR38" s="144"/>
-      <c r="BS38" s="145"/>
+      <c r="BM38" s="151"/>
+      <c r="BN38" s="151"/>
+      <c r="BO38" s="151"/>
+      <c r="BP38" s="151"/>
+      <c r="BQ38" s="151"/>
+      <c r="BR38" s="151"/>
+      <c r="BS38" s="152"/>
       <c r="BT38" s="12"/>
-      <c r="BU38" s="139" t="s">
+      <c r="BU38" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="BV38" s="139"/>
-      <c r="BW38" s="139"/>
-      <c r="BX38" s="139"/>
-      <c r="BY38" s="139"/>
-      <c r="BZ38" s="139"/>
-      <c r="CA38" s="139"/>
-      <c r="CB38" s="140"/>
+      <c r="BV38" s="154"/>
+      <c r="BW38" s="154"/>
+      <c r="BX38" s="154"/>
+      <c r="BY38" s="154"/>
+      <c r="BZ38" s="154"/>
+      <c r="CA38" s="154"/>
+      <c r="CB38" s="155"/>
       <c r="CC38" s="12"/>
-      <c r="CD38" s="166" t="s">
+      <c r="CD38" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="CE38" s="166"/>
-      <c r="CF38" s="166"/>
-      <c r="CG38" s="166"/>
-      <c r="CH38" s="166"/>
-      <c r="CI38" s="166"/>
-      <c r="CJ38" s="166"/>
-      <c r="CK38" s="167"/>
+      <c r="CE38" s="182"/>
+      <c r="CF38" s="182"/>
+      <c r="CG38" s="182"/>
+      <c r="CH38" s="182"/>
+      <c r="CI38" s="182"/>
+      <c r="CJ38" s="182"/>
+      <c r="CK38" s="183"/>
       <c r="CL38" s="12"/>
-      <c r="CM38" s="168" t="s">
+      <c r="CM38" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="CN38" s="168"/>
-      <c r="CO38" s="168"/>
-      <c r="CP38" s="168"/>
-      <c r="CQ38" s="168"/>
-      <c r="CR38" s="168"/>
-      <c r="CS38" s="168"/>
-      <c r="CT38" s="169"/>
+      <c r="CN38" s="184"/>
+      <c r="CO38" s="184"/>
+      <c r="CP38" s="184"/>
+      <c r="CQ38" s="184"/>
+      <c r="CR38" s="184"/>
+      <c r="CS38" s="184"/>
+      <c r="CT38" s="185"/>
       <c r="CU38" s="12"/>
     </row>
     <row r="39" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="40" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="135" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="73"/>
@@ -4317,7 +4317,7 @@
       <c r="CV40" s="82"/>
     </row>
     <row r="41" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B41" s="176"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="75"/>
       <c r="D41" s="76"/>
       <c r="E41" s="68"/>
@@ -4498,7 +4498,7 @@
       <c r="CV41" s="84"/>
     </row>
     <row r="42" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B42" s="176"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="75"/>
       <c r="D42" s="76"/>
       <c r="E42" s="68"/>
@@ -4631,7 +4631,7 @@
       <c r="CV42" s="84"/>
     </row>
     <row r="43" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B43" s="176"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="75"/>
       <c r="D43" s="76"/>
       <c r="E43" s="68"/>
@@ -4762,7 +4762,7 @@
       <c r="CV43" s="84"/>
     </row>
     <row r="44" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B44" s="176"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="75"/>
       <c r="D44" s="76"/>
       <c r="E44" s="68"/>
@@ -4887,7 +4887,7 @@
       <c r="CV44" s="84"/>
     </row>
     <row r="45" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B45" s="176"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
       <c r="E45" s="68"/>
@@ -5012,7 +5012,7 @@
       <c r="CV45" s="84"/>
     </row>
     <row r="46" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="177"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="77"/>
       <c r="D46" s="78"/>
       <c r="E46" s="70"/>
@@ -5243,114 +5243,114 @@
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="143"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="143" t="s">
+      <c r="E48" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="143"/>
-      <c r="O48" s="143"/>
-      <c r="P48" s="143"/>
-      <c r="Q48" s="143"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="160"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="144" t="s">
+      <c r="S48" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="T48" s="144"/>
-      <c r="U48" s="144"/>
-      <c r="V48" s="144"/>
-      <c r="W48" s="144"/>
-      <c r="X48" s="144"/>
-      <c r="Y48" s="144"/>
-      <c r="Z48" s="145"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="151"/>
+      <c r="Z48" s="152"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="136"/>
-      <c r="AF48" s="136"/>
-      <c r="AG48" s="136"/>
-      <c r="AH48" s="136"/>
-      <c r="AI48" s="138"/>
+      <c r="AB48" s="142"/>
+      <c r="AC48" s="142"/>
+      <c r="AD48" s="142"/>
+      <c r="AE48" s="142"/>
+      <c r="AF48" s="142"/>
+      <c r="AG48" s="142"/>
+      <c r="AH48" s="142"/>
+      <c r="AI48" s="143"/>
       <c r="AJ48" s="12"/>
-      <c r="AK48" s="146" t="s">
+      <c r="AK48" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="AL48" s="146"/>
-      <c r="AM48" s="146"/>
-      <c r="AN48" s="146"/>
-      <c r="AO48" s="146"/>
-      <c r="AP48" s="146"/>
-      <c r="AQ48" s="146"/>
-      <c r="AR48" s="147"/>
+      <c r="AL48" s="138"/>
+      <c r="AM48" s="138"/>
+      <c r="AN48" s="138"/>
+      <c r="AO48" s="138"/>
+      <c r="AP48" s="138"/>
+      <c r="AQ48" s="138"/>
+      <c r="AR48" s="139"/>
       <c r="AS48" s="12"/>
-      <c r="AT48" s="148" t="s">
+      <c r="AT48" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AU48" s="148"/>
-      <c r="AV48" s="148"/>
-      <c r="AW48" s="148"/>
-      <c r="AX48" s="148"/>
-      <c r="AY48" s="148"/>
-      <c r="AZ48" s="148"/>
-      <c r="BA48" s="149"/>
+      <c r="AU48" s="180"/>
+      <c r="AV48" s="180"/>
+      <c r="AW48" s="180"/>
+      <c r="AX48" s="180"/>
+      <c r="AY48" s="180"/>
+      <c r="AZ48" s="180"/>
+      <c r="BA48" s="181"/>
       <c r="BB48" s="12"/>
-      <c r="BC48" s="136" t="s">
+      <c r="BC48" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="BD48" s="136"/>
-      <c r="BE48" s="136"/>
-      <c r="BF48" s="136"/>
-      <c r="BG48" s="136"/>
-      <c r="BH48" s="136"/>
-      <c r="BI48" s="136"/>
-      <c r="BJ48" s="138"/>
+      <c r="BD48" s="142"/>
+      <c r="BE48" s="142"/>
+      <c r="BF48" s="142"/>
+      <c r="BG48" s="142"/>
+      <c r="BH48" s="142"/>
+      <c r="BI48" s="142"/>
+      <c r="BJ48" s="143"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="139" t="s">
+      <c r="BL48" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="BM48" s="139"/>
-      <c r="BN48" s="139"/>
-      <c r="BO48" s="139"/>
-      <c r="BP48" s="139"/>
-      <c r="BQ48" s="139"/>
-      <c r="BR48" s="139"/>
-      <c r="BS48" s="140"/>
+      <c r="BM48" s="154"/>
+      <c r="BN48" s="154"/>
+      <c r="BO48" s="154"/>
+      <c r="BP48" s="154"/>
+      <c r="BQ48" s="154"/>
+      <c r="BR48" s="154"/>
+      <c r="BS48" s="155"/>
       <c r="BT48" s="12"/>
-      <c r="BU48" s="136"/>
-      <c r="BV48" s="136"/>
-      <c r="BW48" s="136"/>
-      <c r="BX48" s="136"/>
-      <c r="BY48" s="136"/>
-      <c r="BZ48" s="136"/>
-      <c r="CA48" s="136"/>
-      <c r="CB48" s="138"/>
+      <c r="BU48" s="142"/>
+      <c r="BV48" s="142"/>
+      <c r="BW48" s="142"/>
+      <c r="BX48" s="142"/>
+      <c r="BY48" s="142"/>
+      <c r="BZ48" s="142"/>
+      <c r="CA48" s="142"/>
+      <c r="CB48" s="143"/>
       <c r="CC48" s="12"/>
-      <c r="CD48" s="141"/>
-      <c r="CE48" s="141"/>
-      <c r="CF48" s="141"/>
-      <c r="CG48" s="141"/>
-      <c r="CH48" s="141"/>
-      <c r="CI48" s="141"/>
-      <c r="CJ48" s="141"/>
-      <c r="CK48" s="142"/>
+      <c r="CD48" s="178"/>
+      <c r="CE48" s="178"/>
+      <c r="CF48" s="178"/>
+      <c r="CG48" s="178"/>
+      <c r="CH48" s="178"/>
+      <c r="CI48" s="178"/>
+      <c r="CJ48" s="178"/>
+      <c r="CK48" s="179"/>
       <c r="CL48" s="12"/>
-      <c r="CM48" s="136"/>
-      <c r="CN48" s="136"/>
-      <c r="CO48" s="136"/>
-      <c r="CP48" s="136"/>
-      <c r="CQ48" s="136"/>
-      <c r="CR48" s="136"/>
-      <c r="CS48" s="136"/>
-      <c r="CT48" s="138"/>
+      <c r="CM48" s="142"/>
+      <c r="CN48" s="142"/>
+      <c r="CO48" s="142"/>
+      <c r="CP48" s="142"/>
+      <c r="CQ48" s="142"/>
+      <c r="CR48" s="142"/>
+      <c r="CS48" s="142"/>
+      <c r="CT48" s="143"/>
       <c r="CU48" s="12"/>
       <c r="CV48" s="61"/>
     </row>
@@ -5648,7 +5648,7 @@
       <c r="CV49" s="61"/>
     </row>
     <row r="50" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="170" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="93" t="s">
@@ -5944,7 +5944,7 @@
       </c>
     </row>
     <row r="51" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B51" s="173"/>
+      <c r="B51" s="171"/>
       <c r="C51" s="89" t="s">
         <v>6</v>
       </c>
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="52" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B52" s="173"/>
+      <c r="B52" s="171"/>
       <c r="C52" s="89" t="s">
         <v>7</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
     </row>
     <row r="53" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B53" s="173"/>
+      <c r="B53" s="171"/>
       <c r="C53" s="89" t="s">
         <v>9</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
     </row>
     <row r="54" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B54" s="173"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="89" t="s">
         <v>10</v>
       </c>
@@ -7118,7 +7118,7 @@
       </c>
     </row>
     <row r="55" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B55" s="173"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="89" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7412,7 @@
       </c>
     </row>
     <row r="56" spans="2:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="173"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="89" t="s">
         <v>12</v>
       </c>
@@ -7706,7 +7706,7 @@
       </c>
     </row>
     <row r="57" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B57" s="173"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="89" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
     </row>
     <row r="58" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B58" s="173"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="89" t="s">
         <v>17</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="59" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B59" s="173"/>
+      <c r="B59" s="171"/>
       <c r="C59" s="89" t="s">
         <v>16</v>
       </c>
@@ -8588,7 +8588,7 @@
       </c>
     </row>
     <row r="60" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="174"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="102" t="s">
         <v>18</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="CU61" s="26"/>
     </row>
     <row r="62" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
@@ -9278,7 +9278,7 @@
       </c>
     </row>
     <row r="63" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B63" s="157"/>
+      <c r="B63" s="166"/>
       <c r="C63" t="s">
         <v>21</v>
       </c>
@@ -9572,7 +9572,7 @@
       </c>
     </row>
     <row r="64" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B64" s="157"/>
+      <c r="B64" s="166"/>
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -9866,7 +9866,7 @@
       </c>
     </row>
     <row r="65" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B65" s="157"/>
+      <c r="B65" s="166"/>
       <c r="C65" t="s">
         <v>23</v>
       </c>
@@ -10160,7 +10160,7 @@
       </c>
     </row>
     <row r="66" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="158"/>
+      <c r="B66" s="167"/>
       <c r="C66" t="s">
         <v>24</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="CU67" s="25"/>
     </row>
     <row r="68" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="165" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
@@ -10796,7 +10796,7 @@
       </c>
     </row>
     <row r="69" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B69" s="157"/>
+      <c r="B69" s="166"/>
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -11036,7 +11036,7 @@
       </c>
     </row>
     <row r="70" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B70" s="157"/>
+      <c r="B70" s="166"/>
       <c r="C70" t="s">
         <v>27</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
     </row>
     <row r="71" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="158"/>
+      <c r="B71" s="167"/>
       <c r="C71" t="s">
         <v>28</v>
       </c>
@@ -11521,70 +11521,70 @@
       <c r="D72" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="159" t="s">
+      <c r="E72" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="160" t="s">
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N72" s="161"/>
-      <c r="O72" s="161"/>
-      <c r="P72" s="161"/>
-      <c r="Q72" s="162"/>
-      <c r="R72" s="163" t="s">
+      <c r="N72" s="157"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="158"/>
+      <c r="R72" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S72" s="164"/>
-      <c r="T72" s="164"/>
-      <c r="U72" s="164"/>
-      <c r="V72" s="164"/>
-      <c r="W72" s="164"/>
-      <c r="X72" s="164"/>
-      <c r="Y72" s="164"/>
-      <c r="Z72" s="164"/>
-      <c r="AA72" s="164"/>
-      <c r="AB72" s="164"/>
-      <c r="AC72" s="164"/>
-      <c r="AD72" s="164"/>
-      <c r="AE72" s="164"/>
-      <c r="AF72" s="164"/>
-      <c r="AG72" s="164"/>
-      <c r="AH72" s="164"/>
-      <c r="AI72" s="165"/>
-      <c r="AJ72" s="180" t="s">
+      <c r="S72" s="148"/>
+      <c r="T72" s="148"/>
+      <c r="U72" s="148"/>
+      <c r="V72" s="148"/>
+      <c r="W72" s="148"/>
+      <c r="X72" s="148"/>
+      <c r="Y72" s="148"/>
+      <c r="Z72" s="148"/>
+      <c r="AA72" s="148"/>
+      <c r="AB72" s="148"/>
+      <c r="AC72" s="148"/>
+      <c r="AD72" s="148"/>
+      <c r="AE72" s="148"/>
+      <c r="AF72" s="148"/>
+      <c r="AG72" s="148"/>
+      <c r="AH72" s="148"/>
+      <c r="AI72" s="149"/>
+      <c r="AJ72" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK72" s="144"/>
-      <c r="AL72" s="144"/>
-      <c r="AM72" s="144"/>
-      <c r="AN72" s="144"/>
-      <c r="AO72" s="144"/>
-      <c r="AP72" s="144"/>
-      <c r="AQ72" s="144"/>
-      <c r="AR72" s="144"/>
-      <c r="AS72" s="144"/>
-      <c r="AT72" s="144"/>
-      <c r="AU72" s="144"/>
-      <c r="AV72" s="144"/>
-      <c r="AW72" s="145"/>
+      <c r="AK72" s="151"/>
+      <c r="AL72" s="151"/>
+      <c r="AM72" s="151"/>
+      <c r="AN72" s="151"/>
+      <c r="AO72" s="151"/>
+      <c r="AP72" s="151"/>
+      <c r="AQ72" s="151"/>
+      <c r="AR72" s="151"/>
+      <c r="AS72" s="151"/>
+      <c r="AT72" s="151"/>
+      <c r="AU72" s="151"/>
+      <c r="AV72" s="151"/>
+      <c r="AW72" s="152"/>
       <c r="AX72" s="18"/>
-      <c r="AY72" s="181" t="s">
+      <c r="AY72" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="AZ72" s="182"/>
-      <c r="BA72" s="182"/>
-      <c r="BB72" s="182"/>
-      <c r="BC72" s="182"/>
-      <c r="BD72" s="182"/>
-      <c r="BE72" s="182"/>
-      <c r="BF72" s="183"/>
+      <c r="AZ72" s="145"/>
+      <c r="BA72" s="145"/>
+      <c r="BB72" s="145"/>
+      <c r="BC72" s="145"/>
+      <c r="BD72" s="145"/>
+      <c r="BE72" s="145"/>
+      <c r="BF72" s="146"/>
       <c r="BG72" s="17"/>
       <c r="BH72" s="17"/>
       <c r="BI72" s="17"/>
@@ -12583,70 +12583,70 @@
       <c r="D76" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="159" t="s">
+      <c r="E76" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="139"/>
-      <c r="G76" s="139"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="160" t="s">
+      <c r="F76" s="154"/>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154"/>
+      <c r="L76" s="155"/>
+      <c r="M76" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N76" s="161"/>
-      <c r="O76" s="161"/>
-      <c r="P76" s="161"/>
-      <c r="Q76" s="162"/>
-      <c r="R76" s="163" t="s">
+      <c r="N76" s="157"/>
+      <c r="O76" s="157"/>
+      <c r="P76" s="157"/>
+      <c r="Q76" s="158"/>
+      <c r="R76" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S76" s="164"/>
-      <c r="T76" s="164"/>
-      <c r="U76" s="164"/>
-      <c r="V76" s="164"/>
-      <c r="W76" s="164"/>
-      <c r="X76" s="164"/>
-      <c r="Y76" s="164"/>
-      <c r="Z76" s="164"/>
-      <c r="AA76" s="164"/>
-      <c r="AB76" s="164"/>
-      <c r="AC76" s="164"/>
-      <c r="AD76" s="164"/>
-      <c r="AE76" s="164"/>
-      <c r="AF76" s="164"/>
-      <c r="AG76" s="164"/>
-      <c r="AH76" s="164"/>
-      <c r="AI76" s="165"/>
-      <c r="AJ76" s="180" t="s">
+      <c r="S76" s="148"/>
+      <c r="T76" s="148"/>
+      <c r="U76" s="148"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="148"/>
+      <c r="X76" s="148"/>
+      <c r="Y76" s="148"/>
+      <c r="Z76" s="148"/>
+      <c r="AA76" s="148"/>
+      <c r="AB76" s="148"/>
+      <c r="AC76" s="148"/>
+      <c r="AD76" s="148"/>
+      <c r="AE76" s="148"/>
+      <c r="AF76" s="148"/>
+      <c r="AG76" s="148"/>
+      <c r="AH76" s="148"/>
+      <c r="AI76" s="149"/>
+      <c r="AJ76" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK76" s="144"/>
-      <c r="AL76" s="144"/>
-      <c r="AM76" s="144"/>
-      <c r="AN76" s="144"/>
-      <c r="AO76" s="144"/>
-      <c r="AP76" s="144"/>
-      <c r="AQ76" s="144"/>
-      <c r="AR76" s="144"/>
-      <c r="AS76" s="144"/>
-      <c r="AT76" s="144"/>
-      <c r="AU76" s="144"/>
-      <c r="AV76" s="144"/>
-      <c r="AW76" s="145"/>
+      <c r="AK76" s="151"/>
+      <c r="AL76" s="151"/>
+      <c r="AM76" s="151"/>
+      <c r="AN76" s="151"/>
+      <c r="AO76" s="151"/>
+      <c r="AP76" s="151"/>
+      <c r="AQ76" s="151"/>
+      <c r="AR76" s="151"/>
+      <c r="AS76" s="151"/>
+      <c r="AT76" s="151"/>
+      <c r="AU76" s="151"/>
+      <c r="AV76" s="151"/>
+      <c r="AW76" s="152"/>
       <c r="AX76" s="18"/>
-      <c r="AY76" s="181" t="s">
+      <c r="AY76" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="AZ76" s="182"/>
-      <c r="BA76" s="182"/>
-      <c r="BB76" s="182"/>
-      <c r="BC76" s="182"/>
-      <c r="BD76" s="182"/>
-      <c r="BE76" s="182"/>
-      <c r="BF76" s="183"/>
+      <c r="AZ76" s="145"/>
+      <c r="BA76" s="145"/>
+      <c r="BB76" s="145"/>
+      <c r="BC76" s="145"/>
+      <c r="BD76" s="145"/>
+      <c r="BE76" s="145"/>
+      <c r="BF76" s="146"/>
       <c r="BG76" s="15"/>
       <c r="BK76" s="16"/>
       <c r="BL76" s="23"/>
@@ -13646,70 +13646,70 @@
       <c r="D80" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="159" t="s">
+      <c r="E80" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="139"/>
-      <c r="G80" s="139"/>
-      <c r="H80" s="139"/>
-      <c r="I80" s="139"/>
-      <c r="J80" s="139"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="160" t="s">
+      <c r="F80" s="154"/>
+      <c r="G80" s="154"/>
+      <c r="H80" s="154"/>
+      <c r="I80" s="154"/>
+      <c r="J80" s="154"/>
+      <c r="K80" s="154"/>
+      <c r="L80" s="155"/>
+      <c r="M80" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="161"/>
-      <c r="O80" s="161"/>
-      <c r="P80" s="161"/>
-      <c r="Q80" s="162"/>
-      <c r="R80" s="163" t="s">
+      <c r="N80" s="157"/>
+      <c r="O80" s="157"/>
+      <c r="P80" s="157"/>
+      <c r="Q80" s="158"/>
+      <c r="R80" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S80" s="164"/>
-      <c r="T80" s="164"/>
-      <c r="U80" s="164"/>
-      <c r="V80" s="164"/>
-      <c r="W80" s="164"/>
-      <c r="X80" s="164"/>
-      <c r="Y80" s="164"/>
-      <c r="Z80" s="164"/>
-      <c r="AA80" s="164"/>
-      <c r="AB80" s="164"/>
-      <c r="AC80" s="164"/>
-      <c r="AD80" s="164"/>
-      <c r="AE80" s="164"/>
-      <c r="AF80" s="164"/>
-      <c r="AG80" s="164"/>
-      <c r="AH80" s="164"/>
-      <c r="AI80" s="165"/>
-      <c r="AJ80" s="180" t="s">
+      <c r="S80" s="148"/>
+      <c r="T80" s="148"/>
+      <c r="U80" s="148"/>
+      <c r="V80" s="148"/>
+      <c r="W80" s="148"/>
+      <c r="X80" s="148"/>
+      <c r="Y80" s="148"/>
+      <c r="Z80" s="148"/>
+      <c r="AA80" s="148"/>
+      <c r="AB80" s="148"/>
+      <c r="AC80" s="148"/>
+      <c r="AD80" s="148"/>
+      <c r="AE80" s="148"/>
+      <c r="AF80" s="148"/>
+      <c r="AG80" s="148"/>
+      <c r="AH80" s="148"/>
+      <c r="AI80" s="149"/>
+      <c r="AJ80" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK80" s="144"/>
-      <c r="AL80" s="144"/>
-      <c r="AM80" s="144"/>
-      <c r="AN80" s="144"/>
-      <c r="AO80" s="144"/>
-      <c r="AP80" s="144"/>
-      <c r="AQ80" s="144"/>
-      <c r="AR80" s="144"/>
-      <c r="AS80" s="144"/>
-      <c r="AT80" s="144"/>
-      <c r="AU80" s="144"/>
-      <c r="AV80" s="144"/>
-      <c r="AW80" s="145"/>
+      <c r="AK80" s="151"/>
+      <c r="AL80" s="151"/>
+      <c r="AM80" s="151"/>
+      <c r="AN80" s="151"/>
+      <c r="AO80" s="151"/>
+      <c r="AP80" s="151"/>
+      <c r="AQ80" s="151"/>
+      <c r="AR80" s="151"/>
+      <c r="AS80" s="151"/>
+      <c r="AT80" s="151"/>
+      <c r="AU80" s="151"/>
+      <c r="AV80" s="151"/>
+      <c r="AW80" s="152"/>
       <c r="AX80" s="18"/>
-      <c r="AY80" s="181" t="s">
+      <c r="AY80" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="AZ80" s="182"/>
-      <c r="BA80" s="182"/>
-      <c r="BB80" s="182"/>
-      <c r="BC80" s="182"/>
-      <c r="BD80" s="182"/>
-      <c r="BE80" s="182"/>
-      <c r="BF80" s="183"/>
+      <c r="AZ80" s="145"/>
+      <c r="BA80" s="145"/>
+      <c r="BB80" s="145"/>
+      <c r="BC80" s="145"/>
+      <c r="BD80" s="145"/>
+      <c r="BE80" s="145"/>
+      <c r="BF80" s="146"/>
       <c r="BG80" s="15"/>
       <c r="BK80" s="16"/>
       <c r="BL80" s="23"/>
@@ -14699,70 +14699,70 @@
       <c r="D84" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="159" t="s">
+      <c r="E84" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="139"/>
-      <c r="G84" s="139"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="139"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="160" t="s">
+      <c r="F84" s="154"/>
+      <c r="G84" s="154"/>
+      <c r="H84" s="154"/>
+      <c r="I84" s="154"/>
+      <c r="J84" s="154"/>
+      <c r="K84" s="154"/>
+      <c r="L84" s="155"/>
+      <c r="M84" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="161"/>
-      <c r="O84" s="161"/>
-      <c r="P84" s="161"/>
-      <c r="Q84" s="162"/>
-      <c r="R84" s="163" t="s">
+      <c r="N84" s="157"/>
+      <c r="O84" s="157"/>
+      <c r="P84" s="157"/>
+      <c r="Q84" s="158"/>
+      <c r="R84" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S84" s="164"/>
-      <c r="T84" s="164"/>
-      <c r="U84" s="164"/>
-      <c r="V84" s="164"/>
-      <c r="W84" s="164"/>
-      <c r="X84" s="164"/>
-      <c r="Y84" s="164"/>
-      <c r="Z84" s="164"/>
-      <c r="AA84" s="164"/>
-      <c r="AB84" s="164"/>
-      <c r="AC84" s="164"/>
-      <c r="AD84" s="164"/>
-      <c r="AE84" s="164"/>
-      <c r="AF84" s="164"/>
-      <c r="AG84" s="164"/>
-      <c r="AH84" s="164"/>
-      <c r="AI84" s="165"/>
-      <c r="AJ84" s="180" t="s">
+      <c r="S84" s="148"/>
+      <c r="T84" s="148"/>
+      <c r="U84" s="148"/>
+      <c r="V84" s="148"/>
+      <c r="W84" s="148"/>
+      <c r="X84" s="148"/>
+      <c r="Y84" s="148"/>
+      <c r="Z84" s="148"/>
+      <c r="AA84" s="148"/>
+      <c r="AB84" s="148"/>
+      <c r="AC84" s="148"/>
+      <c r="AD84" s="148"/>
+      <c r="AE84" s="148"/>
+      <c r="AF84" s="148"/>
+      <c r="AG84" s="148"/>
+      <c r="AH84" s="148"/>
+      <c r="AI84" s="149"/>
+      <c r="AJ84" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK84" s="144"/>
-      <c r="AL84" s="144"/>
-      <c r="AM84" s="144"/>
-      <c r="AN84" s="144"/>
-      <c r="AO84" s="144"/>
-      <c r="AP84" s="144"/>
-      <c r="AQ84" s="144"/>
-      <c r="AR84" s="144"/>
-      <c r="AS84" s="144"/>
-      <c r="AT84" s="144"/>
-      <c r="AU84" s="144"/>
-      <c r="AV84" s="144"/>
-      <c r="AW84" s="145"/>
+      <c r="AK84" s="151"/>
+      <c r="AL84" s="151"/>
+      <c r="AM84" s="151"/>
+      <c r="AN84" s="151"/>
+      <c r="AO84" s="151"/>
+      <c r="AP84" s="151"/>
+      <c r="AQ84" s="151"/>
+      <c r="AR84" s="151"/>
+      <c r="AS84" s="151"/>
+      <c r="AT84" s="151"/>
+      <c r="AU84" s="151"/>
+      <c r="AV84" s="151"/>
+      <c r="AW84" s="152"/>
       <c r="AX84" s="18"/>
-      <c r="AY84" s="181" t="s">
+      <c r="AY84" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="AZ84" s="182"/>
-      <c r="BA84" s="182"/>
-      <c r="BB84" s="182"/>
-      <c r="BC84" s="182"/>
-      <c r="BD84" s="182"/>
-      <c r="BE84" s="182"/>
-      <c r="BF84" s="183"/>
+      <c r="AZ84" s="145"/>
+      <c r="BA84" s="145"/>
+      <c r="BB84" s="145"/>
+      <c r="BC84" s="145"/>
+      <c r="BD84" s="145"/>
+      <c r="BE84" s="145"/>
+      <c r="BF84" s="146"/>
       <c r="BG84" s="15"/>
       <c r="BK84" s="16"/>
       <c r="BL84" s="23"/>
@@ -15837,59 +15837,59 @@
       <c r="D88" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="159" t="s">
+      <c r="E88" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="139"/>
-      <c r="G88" s="139"/>
-      <c r="H88" s="139"/>
-      <c r="I88" s="139"/>
-      <c r="J88" s="139"/>
-      <c r="K88" s="139"/>
-      <c r="L88" s="140"/>
-      <c r="M88" s="160" t="s">
+      <c r="F88" s="154"/>
+      <c r="G88" s="154"/>
+      <c r="H88" s="154"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
+      <c r="K88" s="154"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N88" s="161"/>
-      <c r="O88" s="161"/>
-      <c r="P88" s="161"/>
-      <c r="Q88" s="162"/>
-      <c r="R88" s="163" t="s">
+      <c r="N88" s="157"/>
+      <c r="O88" s="157"/>
+      <c r="P88" s="157"/>
+      <c r="Q88" s="158"/>
+      <c r="R88" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S88" s="164"/>
-      <c r="T88" s="164"/>
-      <c r="U88" s="164"/>
-      <c r="V88" s="164"/>
-      <c r="W88" s="164"/>
-      <c r="X88" s="164"/>
-      <c r="Y88" s="164"/>
-      <c r="Z88" s="164"/>
-      <c r="AA88" s="164"/>
-      <c r="AB88" s="164"/>
-      <c r="AC88" s="164"/>
-      <c r="AD88" s="164"/>
-      <c r="AE88" s="164"/>
-      <c r="AF88" s="164"/>
-      <c r="AG88" s="164"/>
-      <c r="AH88" s="164"/>
-      <c r="AI88" s="165"/>
-      <c r="AJ88" s="180" t="s">
+      <c r="S88" s="148"/>
+      <c r="T88" s="148"/>
+      <c r="U88" s="148"/>
+      <c r="V88" s="148"/>
+      <c r="W88" s="148"/>
+      <c r="X88" s="148"/>
+      <c r="Y88" s="148"/>
+      <c r="Z88" s="148"/>
+      <c r="AA88" s="148"/>
+      <c r="AB88" s="148"/>
+      <c r="AC88" s="148"/>
+      <c r="AD88" s="148"/>
+      <c r="AE88" s="148"/>
+      <c r="AF88" s="148"/>
+      <c r="AG88" s="148"/>
+      <c r="AH88" s="148"/>
+      <c r="AI88" s="149"/>
+      <c r="AJ88" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK88" s="144"/>
-      <c r="AL88" s="144"/>
-      <c r="AM88" s="144"/>
-      <c r="AN88" s="144"/>
-      <c r="AO88" s="144"/>
-      <c r="AP88" s="144"/>
-      <c r="AQ88" s="144"/>
-      <c r="AR88" s="144"/>
-      <c r="AS88" s="144"/>
-      <c r="AT88" s="144"/>
-      <c r="AU88" s="144"/>
-      <c r="AV88" s="144"/>
-      <c r="AW88" s="145"/>
+      <c r="AK88" s="151"/>
+      <c r="AL88" s="151"/>
+      <c r="AM88" s="151"/>
+      <c r="AN88" s="151"/>
+      <c r="AO88" s="151"/>
+      <c r="AP88" s="151"/>
+      <c r="AQ88" s="151"/>
+      <c r="AR88" s="151"/>
+      <c r="AS88" s="151"/>
+      <c r="AT88" s="151"/>
+      <c r="AU88" s="151"/>
+      <c r="AV88" s="151"/>
+      <c r="AW88" s="152"/>
       <c r="AX88" s="18"/>
       <c r="CK88">
         <v>12</v>
@@ -16232,59 +16232,59 @@
       <c r="D92" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="159" t="s">
+      <c r="E92" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="139"/>
-      <c r="J92" s="139"/>
-      <c r="K92" s="139"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="160" t="s">
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="155"/>
+      <c r="M92" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="161"/>
-      <c r="O92" s="161"/>
-      <c r="P92" s="161"/>
-      <c r="Q92" s="162"/>
-      <c r="R92" s="163" t="s">
+      <c r="N92" s="157"/>
+      <c r="O92" s="157"/>
+      <c r="P92" s="157"/>
+      <c r="Q92" s="158"/>
+      <c r="R92" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S92" s="164"/>
-      <c r="T92" s="164"/>
-      <c r="U92" s="164"/>
-      <c r="V92" s="164"/>
-      <c r="W92" s="164"/>
-      <c r="X92" s="164"/>
-      <c r="Y92" s="164"/>
-      <c r="Z92" s="164"/>
-      <c r="AA92" s="164"/>
-      <c r="AB92" s="164"/>
-      <c r="AC92" s="164"/>
-      <c r="AD92" s="164"/>
-      <c r="AE92" s="164"/>
-      <c r="AF92" s="164"/>
-      <c r="AG92" s="164"/>
-      <c r="AH92" s="164"/>
-      <c r="AI92" s="165"/>
-      <c r="AJ92" s="180" t="s">
+      <c r="S92" s="148"/>
+      <c r="T92" s="148"/>
+      <c r="U92" s="148"/>
+      <c r="V92" s="148"/>
+      <c r="W92" s="148"/>
+      <c r="X92" s="148"/>
+      <c r="Y92" s="148"/>
+      <c r="Z92" s="148"/>
+      <c r="AA92" s="148"/>
+      <c r="AB92" s="148"/>
+      <c r="AC92" s="148"/>
+      <c r="AD92" s="148"/>
+      <c r="AE92" s="148"/>
+      <c r="AF92" s="148"/>
+      <c r="AG92" s="148"/>
+      <c r="AH92" s="148"/>
+      <c r="AI92" s="149"/>
+      <c r="AJ92" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK92" s="144"/>
-      <c r="AL92" s="144"/>
-      <c r="AM92" s="144"/>
-      <c r="AN92" s="144"/>
-      <c r="AO92" s="144"/>
-      <c r="AP92" s="144"/>
-      <c r="AQ92" s="144"/>
-      <c r="AR92" s="144"/>
-      <c r="AS92" s="144"/>
-      <c r="AT92" s="144"/>
-      <c r="AU92" s="144"/>
-      <c r="AV92" s="144"/>
-      <c r="AW92" s="145"/>
+      <c r="AK92" s="151"/>
+      <c r="AL92" s="151"/>
+      <c r="AM92" s="151"/>
+      <c r="AN92" s="151"/>
+      <c r="AO92" s="151"/>
+      <c r="AP92" s="151"/>
+      <c r="AQ92" s="151"/>
+      <c r="AR92" s="151"/>
+      <c r="AS92" s="151"/>
+      <c r="AT92" s="151"/>
+      <c r="AU92" s="151"/>
+      <c r="AV92" s="151"/>
+      <c r="AW92" s="152"/>
       <c r="AX92" s="18"/>
     </row>
     <row r="93" spans="2:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16625,59 +16625,59 @@
       <c r="D96" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="159" t="s">
+      <c r="E96" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="139"/>
-      <c r="G96" s="139"/>
-      <c r="H96" s="139"/>
-      <c r="I96" s="139"/>
-      <c r="J96" s="139"/>
-      <c r="K96" s="139"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="160" t="s">
+      <c r="F96" s="154"/>
+      <c r="G96" s="154"/>
+      <c r="H96" s="154"/>
+      <c r="I96" s="154"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="155"/>
+      <c r="M96" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="161"/>
-      <c r="O96" s="161"/>
-      <c r="P96" s="161"/>
-      <c r="Q96" s="162"/>
-      <c r="R96" s="163" t="s">
+      <c r="N96" s="157"/>
+      <c r="O96" s="157"/>
+      <c r="P96" s="157"/>
+      <c r="Q96" s="158"/>
+      <c r="R96" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="S96" s="164"/>
-      <c r="T96" s="164"/>
-      <c r="U96" s="164"/>
-      <c r="V96" s="164"/>
-      <c r="W96" s="164"/>
-      <c r="X96" s="164"/>
-      <c r="Y96" s="164"/>
-      <c r="Z96" s="164"/>
-      <c r="AA96" s="164"/>
-      <c r="AB96" s="164"/>
-      <c r="AC96" s="164"/>
-      <c r="AD96" s="164"/>
-      <c r="AE96" s="164"/>
-      <c r="AF96" s="164"/>
-      <c r="AG96" s="164"/>
-      <c r="AH96" s="164"/>
-      <c r="AI96" s="165"/>
-      <c r="AJ96" s="180" t="s">
+      <c r="S96" s="148"/>
+      <c r="T96" s="148"/>
+      <c r="U96" s="148"/>
+      <c r="V96" s="148"/>
+      <c r="W96" s="148"/>
+      <c r="X96" s="148"/>
+      <c r="Y96" s="148"/>
+      <c r="Z96" s="148"/>
+      <c r="AA96" s="148"/>
+      <c r="AB96" s="148"/>
+      <c r="AC96" s="148"/>
+      <c r="AD96" s="148"/>
+      <c r="AE96" s="148"/>
+      <c r="AF96" s="148"/>
+      <c r="AG96" s="148"/>
+      <c r="AH96" s="148"/>
+      <c r="AI96" s="149"/>
+      <c r="AJ96" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="AK96" s="144"/>
-      <c r="AL96" s="144"/>
-      <c r="AM96" s="144"/>
-      <c r="AN96" s="144"/>
-      <c r="AO96" s="144"/>
-      <c r="AP96" s="144"/>
-      <c r="AQ96" s="144"/>
-      <c r="AR96" s="144"/>
-      <c r="AS96" s="144"/>
-      <c r="AT96" s="144"/>
-      <c r="AU96" s="144"/>
-      <c r="AV96" s="144"/>
-      <c r="AW96" s="145"/>
+      <c r="AK96" s="151"/>
+      <c r="AL96" s="151"/>
+      <c r="AM96" s="151"/>
+      <c r="AN96" s="151"/>
+      <c r="AO96" s="151"/>
+      <c r="AP96" s="151"/>
+      <c r="AQ96" s="151"/>
+      <c r="AR96" s="151"/>
+      <c r="AS96" s="151"/>
+      <c r="AT96" s="151"/>
+      <c r="AU96" s="151"/>
+      <c r="AV96" s="151"/>
+      <c r="AW96" s="152"/>
       <c r="AX96" s="18"/>
       <c r="BA96" s="49"/>
       <c r="BB96" s="49"/>
@@ -17996,23 +17996,23 @@
       <c r="D106" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="143"/>
-      <c r="G106" s="143"/>
-      <c r="H106" s="143"/>
-      <c r="I106" s="143"/>
-      <c r="J106" s="143"/>
-      <c r="K106" s="143"/>
-      <c r="L106" s="143"/>
-      <c r="M106" s="143" t="s">
+      <c r="E106" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="160"/>
+      <c r="G106" s="160"/>
+      <c r="H106" s="160"/>
+      <c r="I106" s="160"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="160"/>
+      <c r="L106" s="160"/>
+      <c r="M106" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N106" s="143"/>
-      <c r="O106" s="143"/>
-      <c r="P106" s="143"/>
-      <c r="Q106" s="143"/>
+      <c r="N106" s="160"/>
+      <c r="O106" s="160"/>
+      <c r="P106" s="160"/>
+      <c r="Q106" s="160"/>
     </row>
     <row r="107" spans="3:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="9">
@@ -18110,25 +18110,25 @@
       <c r="D111" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="143"/>
-      <c r="G111" s="143"/>
-      <c r="H111" s="143"/>
-      <c r="I111" s="143"/>
-      <c r="J111" s="143"/>
-      <c r="K111" s="143"/>
-      <c r="L111" s="151"/>
-      <c r="M111" s="152" t="s">
+      <c r="E111" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="160"/>
+      <c r="G111" s="160"/>
+      <c r="H111" s="160"/>
+      <c r="I111" s="160"/>
+      <c r="J111" s="160"/>
+      <c r="K111" s="160"/>
+      <c r="L111" s="173"/>
+      <c r="M111" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="N111" s="153"/>
-      <c r="O111" s="153"/>
-      <c r="P111" s="153"/>
-      <c r="Q111" s="153"/>
-      <c r="R111" s="154"/>
-      <c r="S111" s="155"/>
+      <c r="N111" s="175"/>
+      <c r="O111" s="175"/>
+      <c r="P111" s="175"/>
+      <c r="Q111" s="175"/>
+      <c r="R111" s="176"/>
+      <c r="S111" s="177"/>
       <c r="T111" t="s">
         <v>36</v>
       </c>
@@ -18239,39 +18239,45 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AT26:BA26"/>
-    <mergeCell ref="BC26:BJ26"/>
-    <mergeCell ref="BL26:BS26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="AY84:BF84"/>
-    <mergeCell ref="AY80:BF80"/>
-    <mergeCell ref="AY76:BF76"/>
-    <mergeCell ref="AY72:BF72"/>
-    <mergeCell ref="R72:AI72"/>
-    <mergeCell ref="AJ72:AW72"/>
-    <mergeCell ref="R96:AI96"/>
-    <mergeCell ref="R80:AI80"/>
-    <mergeCell ref="R76:AI76"/>
-    <mergeCell ref="E96:L96"/>
-    <mergeCell ref="M96:Q96"/>
-    <mergeCell ref="E84:L84"/>
-    <mergeCell ref="M84:Q84"/>
-    <mergeCell ref="R84:AI84"/>
-    <mergeCell ref="R88:AI88"/>
-    <mergeCell ref="AJ96:AW96"/>
-    <mergeCell ref="AJ92:AW92"/>
-    <mergeCell ref="AJ88:AW88"/>
-    <mergeCell ref="AJ80:AW80"/>
-    <mergeCell ref="AJ76:AW76"/>
-    <mergeCell ref="AJ84:AW84"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="DE14:DL14"/>
+    <mergeCell ref="DN14:DU14"/>
+    <mergeCell ref="DW14:ED14"/>
+    <mergeCell ref="EF14:EM14"/>
+    <mergeCell ref="EO14:EV14"/>
+    <mergeCell ref="BL48:BS48"/>
+    <mergeCell ref="BU48:CB48"/>
+    <mergeCell ref="CD48:CK48"/>
+    <mergeCell ref="CM48:CT48"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AB48:AI48"/>
+    <mergeCell ref="AK48:AR48"/>
+    <mergeCell ref="AT48:BA48"/>
+    <mergeCell ref="BC48:BJ48"/>
+    <mergeCell ref="BU38:CB38"/>
+    <mergeCell ref="CD38:CK38"/>
+    <mergeCell ref="CM38:CT38"/>
+    <mergeCell ref="BC38:BJ38"/>
+    <mergeCell ref="BL38:BS38"/>
+    <mergeCell ref="BL14:BS14"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="E72:L72"/>
+    <mergeCell ref="E76:L76"/>
+    <mergeCell ref="E80:L80"/>
+    <mergeCell ref="M72:Q72"/>
+    <mergeCell ref="M76:Q76"/>
+    <mergeCell ref="M80:Q80"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="E106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="E111:L111"/>
+    <mergeCell ref="M111:S111"/>
+    <mergeCell ref="E88:L88"/>
+    <mergeCell ref="M88:Q88"/>
+    <mergeCell ref="E92:L92"/>
+    <mergeCell ref="M92:Q92"/>
+    <mergeCell ref="R92:AI92"/>
     <mergeCell ref="BU14:CB14"/>
     <mergeCell ref="CD14:CK14"/>
     <mergeCell ref="CM14:CT14"/>
@@ -18288,6 +18294,34 @@
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="S26:Z26"/>
     <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="AJ96:AW96"/>
+    <mergeCell ref="AJ92:AW92"/>
+    <mergeCell ref="AJ88:AW88"/>
+    <mergeCell ref="AJ80:AW80"/>
+    <mergeCell ref="AJ76:AW76"/>
+    <mergeCell ref="AJ84:AW84"/>
+    <mergeCell ref="R96:AI96"/>
+    <mergeCell ref="R80:AI80"/>
+    <mergeCell ref="R76:AI76"/>
+    <mergeCell ref="E96:L96"/>
+    <mergeCell ref="M96:Q96"/>
+    <mergeCell ref="E84:L84"/>
+    <mergeCell ref="M84:Q84"/>
+    <mergeCell ref="R84:AI84"/>
+    <mergeCell ref="R88:AI88"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="AY84:BF84"/>
+    <mergeCell ref="AY80:BF80"/>
+    <mergeCell ref="AY76:BF76"/>
+    <mergeCell ref="AY72:BF72"/>
+    <mergeCell ref="R72:AI72"/>
+    <mergeCell ref="AJ72:AW72"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="S38:Z38"/>
     <mergeCell ref="AB38:AI38"/>
@@ -18297,45 +18331,11 @@
     <mergeCell ref="E38:L38"/>
     <mergeCell ref="B50:B60"/>
     <mergeCell ref="B40:B46"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="E106:L106"/>
-    <mergeCell ref="M106:Q106"/>
-    <mergeCell ref="E111:L111"/>
-    <mergeCell ref="M111:S111"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="E72:L72"/>
-    <mergeCell ref="E76:L76"/>
-    <mergeCell ref="E80:L80"/>
-    <mergeCell ref="M72:Q72"/>
-    <mergeCell ref="M76:Q76"/>
-    <mergeCell ref="M80:Q80"/>
-    <mergeCell ref="E88:L88"/>
-    <mergeCell ref="M88:Q88"/>
-    <mergeCell ref="E92:L92"/>
-    <mergeCell ref="M92:Q92"/>
-    <mergeCell ref="R92:AI92"/>
-    <mergeCell ref="BL48:BS48"/>
-    <mergeCell ref="BU48:CB48"/>
-    <mergeCell ref="CD48:CK48"/>
-    <mergeCell ref="CM48:CT48"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="AB48:AI48"/>
-    <mergeCell ref="AK48:AR48"/>
-    <mergeCell ref="AT48:BA48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BU38:CB38"/>
-    <mergeCell ref="CD38:CK38"/>
-    <mergeCell ref="CM38:CT38"/>
-    <mergeCell ref="BC38:BJ38"/>
-    <mergeCell ref="BL38:BS38"/>
-    <mergeCell ref="BL14:BS14"/>
-    <mergeCell ref="DE14:DL14"/>
-    <mergeCell ref="DN14:DU14"/>
-    <mergeCell ref="DW14:ED14"/>
-    <mergeCell ref="EF14:EM14"/>
-    <mergeCell ref="EO14:EV14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AT26:BA26"/>
+    <mergeCell ref="BC26:BJ26"/>
+    <mergeCell ref="BL26:BS26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" scale="30" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DDS-2.1(Arton)/Омега протокол.xlsx
+++ b/DDS-2.1(Arton)/Омега протокол.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C03D6F-0F66-4FCF-8566-8A7785CD261A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBD85A-52F4-43BE-A412-94B70EA758FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1256,11 +1256,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1490,52 +1505,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,81 +1538,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,10 +1562,106 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,8 +1955,8 @@
   </sheetPr>
   <dimension ref="B2:FA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BB28" sqref="BB28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AQ33" sqref="AQ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,23 +1973,23 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
+      <c r="E3" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
       <c r="R3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2090,23 +2109,23 @@
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
+      <c r="E7" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
       <c r="R7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2251,35 +2270,35 @@
       <c r="S11" s="61"/>
     </row>
     <row r="12" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="160" t="s">
+      <c r="M12" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
     </row>
     <row r="13" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160" t="s">
+      <c r="E13" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
     </row>
     <row r="14" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="9">
@@ -2325,143 +2344,143 @@
         <v>13</v>
       </c>
       <c r="R14" s="12"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="143"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="138"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="142"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="142"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="142"/>
-      <c r="AH14" s="142"/>
-      <c r="AI14" s="143"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="138"/>
       <c r="AJ14" s="12"/>
-      <c r="AK14" s="161"/>
-      <c r="AL14" s="161"/>
-      <c r="AM14" s="161"/>
-      <c r="AN14" s="161"/>
-      <c r="AO14" s="161"/>
-      <c r="AP14" s="161"/>
-      <c r="AQ14" s="161"/>
-      <c r="AR14" s="162"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="170"/>
+      <c r="AN14" s="170"/>
+      <c r="AO14" s="170"/>
+      <c r="AP14" s="170"/>
+      <c r="AQ14" s="170"/>
+      <c r="AR14" s="171"/>
       <c r="AS14" s="12"/>
-      <c r="AT14" s="142"/>
-      <c r="AU14" s="142"/>
-      <c r="AV14" s="142"/>
-      <c r="AW14" s="142"/>
-      <c r="AX14" s="142"/>
-      <c r="AY14" s="142"/>
-      <c r="AZ14" s="142"/>
-      <c r="BA14" s="143"/>
+      <c r="AT14" s="136"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="136"/>
+      <c r="AW14" s="136"/>
+      <c r="AX14" s="136"/>
+      <c r="AY14" s="136"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="138"/>
       <c r="BB14" s="12"/>
-      <c r="BC14" s="142"/>
-      <c r="BD14" s="142"/>
-      <c r="BE14" s="142"/>
-      <c r="BF14" s="142"/>
-      <c r="BG14" s="142"/>
-      <c r="BH14" s="142"/>
-      <c r="BI14" s="142"/>
-      <c r="BJ14" s="143"/>
+      <c r="BC14" s="136"/>
+      <c r="BD14" s="136"/>
+      <c r="BE14" s="136"/>
+      <c r="BF14" s="136"/>
+      <c r="BG14" s="136"/>
+      <c r="BH14" s="136"/>
+      <c r="BI14" s="136"/>
+      <c r="BJ14" s="138"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="142"/>
-      <c r="BM14" s="142"/>
-      <c r="BN14" s="142"/>
-      <c r="BO14" s="142"/>
-      <c r="BP14" s="142"/>
-      <c r="BQ14" s="142"/>
-      <c r="BR14" s="142"/>
-      <c r="BS14" s="143"/>
+      <c r="BL14" s="136"/>
+      <c r="BM14" s="136"/>
+      <c r="BN14" s="136"/>
+      <c r="BO14" s="136"/>
+      <c r="BP14" s="136"/>
+      <c r="BQ14" s="136"/>
+      <c r="BR14" s="136"/>
+      <c r="BS14" s="138"/>
       <c r="BT14" s="12"/>
-      <c r="BU14" s="142"/>
-      <c r="BV14" s="142"/>
-      <c r="BW14" s="142"/>
-      <c r="BX14" s="142"/>
-      <c r="BY14" s="142"/>
-      <c r="BZ14" s="142"/>
-      <c r="CA14" s="142"/>
-      <c r="CB14" s="143"/>
+      <c r="BU14" s="136"/>
+      <c r="BV14" s="136"/>
+      <c r="BW14" s="136"/>
+      <c r="BX14" s="136"/>
+      <c r="BY14" s="136"/>
+      <c r="BZ14" s="136"/>
+      <c r="CA14" s="136"/>
+      <c r="CB14" s="138"/>
       <c r="CC14" s="12"/>
-      <c r="CD14" s="161"/>
-      <c r="CE14" s="161"/>
-      <c r="CF14" s="161"/>
-      <c r="CG14" s="161"/>
-      <c r="CH14" s="161"/>
-      <c r="CI14" s="161"/>
-      <c r="CJ14" s="161"/>
-      <c r="CK14" s="162"/>
+      <c r="CD14" s="170"/>
+      <c r="CE14" s="170"/>
+      <c r="CF14" s="170"/>
+      <c r="CG14" s="170"/>
+      <c r="CH14" s="170"/>
+      <c r="CI14" s="170"/>
+      <c r="CJ14" s="170"/>
+      <c r="CK14" s="171"/>
       <c r="CL14" s="12"/>
-      <c r="CM14" s="142"/>
-      <c r="CN14" s="142"/>
-      <c r="CO14" s="142"/>
-      <c r="CP14" s="142"/>
-      <c r="CQ14" s="142"/>
-      <c r="CR14" s="142"/>
-      <c r="CS14" s="142"/>
-      <c r="CT14" s="143"/>
+      <c r="CM14" s="136"/>
+      <c r="CN14" s="136"/>
+      <c r="CO14" s="136"/>
+      <c r="CP14" s="136"/>
+      <c r="CQ14" s="136"/>
+      <c r="CR14" s="136"/>
+      <c r="CS14" s="136"/>
+      <c r="CT14" s="138"/>
       <c r="CU14" s="12"/>
-      <c r="CV14" s="142"/>
-      <c r="CW14" s="142"/>
-      <c r="CX14" s="142"/>
-      <c r="CY14" s="142"/>
-      <c r="CZ14" s="142"/>
-      <c r="DA14" s="142"/>
-      <c r="DB14" s="142"/>
-      <c r="DC14" s="143"/>
+      <c r="CV14" s="136"/>
+      <c r="CW14" s="136"/>
+      <c r="CX14" s="136"/>
+      <c r="CY14" s="136"/>
+      <c r="CZ14" s="136"/>
+      <c r="DA14" s="136"/>
+      <c r="DB14" s="136"/>
+      <c r="DC14" s="138"/>
       <c r="DD14" s="12"/>
-      <c r="DE14" s="186"/>
-      <c r="DF14" s="142"/>
-      <c r="DG14" s="142"/>
-      <c r="DH14" s="142"/>
-      <c r="DI14" s="142"/>
-      <c r="DJ14" s="142"/>
-      <c r="DK14" s="142"/>
-      <c r="DL14" s="187"/>
+      <c r="DE14" s="135"/>
+      <c r="DF14" s="136"/>
+      <c r="DG14" s="136"/>
+      <c r="DH14" s="136"/>
+      <c r="DI14" s="136"/>
+      <c r="DJ14" s="136"/>
+      <c r="DK14" s="136"/>
+      <c r="DL14" s="137"/>
       <c r="DM14" s="12"/>
-      <c r="DN14" s="186"/>
-      <c r="DO14" s="142"/>
-      <c r="DP14" s="142"/>
-      <c r="DQ14" s="142"/>
-      <c r="DR14" s="142"/>
-      <c r="DS14" s="142"/>
-      <c r="DT14" s="142"/>
-      <c r="DU14" s="187"/>
+      <c r="DN14" s="135"/>
+      <c r="DO14" s="136"/>
+      <c r="DP14" s="136"/>
+      <c r="DQ14" s="136"/>
+      <c r="DR14" s="136"/>
+      <c r="DS14" s="136"/>
+      <c r="DT14" s="136"/>
+      <c r="DU14" s="137"/>
       <c r="DV14" s="12"/>
-      <c r="DW14" s="142"/>
-      <c r="DX14" s="142"/>
-      <c r="DY14" s="142"/>
-      <c r="DZ14" s="142"/>
-      <c r="EA14" s="142"/>
-      <c r="EB14" s="142"/>
-      <c r="EC14" s="142"/>
-      <c r="ED14" s="143"/>
+      <c r="DW14" s="136"/>
+      <c r="DX14" s="136"/>
+      <c r="DY14" s="136"/>
+      <c r="DZ14" s="136"/>
+      <c r="EA14" s="136"/>
+      <c r="EB14" s="136"/>
+      <c r="EC14" s="136"/>
+      <c r="ED14" s="138"/>
       <c r="EE14" s="12"/>
-      <c r="EF14" s="142"/>
-      <c r="EG14" s="142"/>
-      <c r="EH14" s="142"/>
-      <c r="EI14" s="142"/>
-      <c r="EJ14" s="142"/>
-      <c r="EK14" s="142"/>
-      <c r="EL14" s="142"/>
-      <c r="EM14" s="143"/>
+      <c r="EF14" s="136"/>
+      <c r="EG14" s="136"/>
+      <c r="EH14" s="136"/>
+      <c r="EI14" s="136"/>
+      <c r="EJ14" s="136"/>
+      <c r="EK14" s="136"/>
+      <c r="EL14" s="136"/>
+      <c r="EM14" s="138"/>
       <c r="EN14" s="12"/>
-      <c r="EO14" s="142"/>
-      <c r="EP14" s="142"/>
-      <c r="EQ14" s="142"/>
-      <c r="ER14" s="142"/>
-      <c r="ES14" s="142"/>
-      <c r="ET14" s="142"/>
-      <c r="EU14" s="142"/>
-      <c r="EV14" s="143"/>
+      <c r="EO14" s="136"/>
+      <c r="EP14" s="136"/>
+      <c r="EQ14" s="136"/>
+      <c r="ER14" s="136"/>
+      <c r="ES14" s="136"/>
+      <c r="ET14" s="136"/>
+      <c r="EU14" s="136"/>
+      <c r="EV14" s="138"/>
     </row>
     <row r="15" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="177" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="73"/>
@@ -2914,7 +2933,7 @@
       </c>
     </row>
     <row r="16" spans="2:152" x14ac:dyDescent="0.25">
-      <c r="B16" s="136"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="75"/>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -3137,27 +3156,27 @@
       </c>
     </row>
     <row r="17" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B17" s="136"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="75"/>
       <c r="D17" s="61"/>
     </row>
     <row r="18" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B18" s="136"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="75"/>
       <c r="D18" s="61"/>
     </row>
     <row r="19" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B19" s="136"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="75"/>
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B20" s="136"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="75"/>
       <c r="D20" s="61"/>
     </row>
     <row r="21" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="137"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="77"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -3217,35 +3236,35 @@
       <c r="S23" s="61"/>
     </row>
     <row r="24" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="160" t="s">
+      <c r="M24" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
     </row>
     <row r="25" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160" t="s">
+      <c r="E25" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
     </row>
     <row r="26" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="9">
@@ -3291,71 +3310,71 @@
         <v>13</v>
       </c>
       <c r="R26" s="12"/>
-      <c r="S26" s="163" t="s">
+      <c r="S26" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="164"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="173"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="145" t="s">
+      <c r="AB26" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="146"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="174"/>
+      <c r="AI26" s="175"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="138" t="s">
+      <c r="AK26" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="AL26" s="138"/>
-      <c r="AM26" s="138"/>
-      <c r="AN26" s="138"/>
-      <c r="AO26" s="138"/>
-      <c r="AP26" s="138"/>
-      <c r="AQ26" s="138"/>
-      <c r="AR26" s="139"/>
+      <c r="AL26" s="146"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="146"/>
+      <c r="AO26" s="146"/>
+      <c r="AP26" s="146"/>
+      <c r="AQ26" s="146"/>
+      <c r="AR26" s="147"/>
       <c r="AS26" s="12"/>
-      <c r="AT26" s="140" t="s">
+      <c r="AT26" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="140"/>
-      <c r="AV26" s="140"/>
-      <c r="AW26" s="140"/>
-      <c r="AX26" s="140"/>
-      <c r="AY26" s="140"/>
-      <c r="AZ26" s="140"/>
-      <c r="BA26" s="141"/>
+      <c r="AU26" s="186"/>
+      <c r="AV26" s="186"/>
+      <c r="AW26" s="186"/>
+      <c r="AX26" s="186"/>
+      <c r="AY26" s="186"/>
+      <c r="AZ26" s="186"/>
+      <c r="BA26" s="187"/>
       <c r="BB26" s="12"/>
-      <c r="BC26" s="142"/>
-      <c r="BD26" s="142"/>
-      <c r="BE26" s="142"/>
-      <c r="BF26" s="142"/>
-      <c r="BG26" s="142"/>
-      <c r="BH26" s="142"/>
-      <c r="BI26" s="142"/>
-      <c r="BJ26" s="143"/>
+      <c r="BC26" s="136"/>
+      <c r="BD26" s="136"/>
+      <c r="BE26" s="136"/>
+      <c r="BF26" s="136"/>
+      <c r="BG26" s="136"/>
+      <c r="BH26" s="136"/>
+      <c r="BI26" s="136"/>
+      <c r="BJ26" s="138"/>
       <c r="BK26" s="12"/>
-      <c r="BL26" s="142"/>
-      <c r="BM26" s="142"/>
-      <c r="BN26" s="142"/>
-      <c r="BO26" s="142"/>
-      <c r="BP26" s="142"/>
-      <c r="BQ26" s="142"/>
-      <c r="BR26" s="142"/>
-      <c r="BS26" s="143"/>
+      <c r="BL26" s="163"/>
+      <c r="BM26" s="164"/>
+      <c r="BN26" s="164"/>
+      <c r="BO26" s="189"/>
+      <c r="BP26" s="163"/>
+      <c r="BQ26" s="164"/>
+      <c r="BR26" s="164"/>
+      <c r="BS26" s="189"/>
       <c r="BT26" s="12"/>
     </row>
     <row r="27" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="177" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="73"/>
@@ -3567,8 +3586,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B28" s="136"/>
+    <row r="28" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="178"/>
       <c r="C28" s="75"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -3624,64 +3643,76 @@
         <v>1</v>
       </c>
       <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
+      <c r="AU28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="18">
+        <v>1</v>
+      </c>
       <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
+      <c r="AY28" s="18">
+        <v>1</v>
+      </c>
       <c r="AZ28" s="89"/>
       <c r="BA28" s="89"/>
-      <c r="BB28" s="89"/>
-      <c r="BC28" s="89">
-        <v>1</v>
-      </c>
-      <c r="BD28" s="89"/>
-      <c r="BE28" s="89">
-        <v>1</v>
-      </c>
-      <c r="BF28" s="89"/>
-      <c r="BG28" s="89"/>
-      <c r="BH28" s="89">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="89"/>
-      <c r="BJ28" s="89"/>
-      <c r="BK28" s="89">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="89">
-        <v>1</v>
-      </c>
+      <c r="BB28" s="188">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="188">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="89"/>
       <c r="BM28" s="89"/>
-      <c r="BN28" s="89"/>
-      <c r="BO28" s="89"/>
+      <c r="BN28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="18">
+        <v>1</v>
+      </c>
       <c r="BP28" s="89"/>
       <c r="BQ28" s="89"/>
-      <c r="BR28" s="89"/>
+      <c r="BR28" s="18">
+        <v>1</v>
+      </c>
       <c r="BS28" s="89"/>
       <c r="BT28" s="89"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B29" s="136"/>
+    <row r="29" spans="2:72" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="178"/>
       <c r="C29" s="75"/>
       <c r="D29" s="61"/>
     </row>
     <row r="30" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B30" s="136"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="75"/>
       <c r="D30" s="61"/>
     </row>
     <row r="31" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="75"/>
       <c r="D31" s="61"/>
     </row>
     <row r="32" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B32" s="136"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="137"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="77"/>
     </row>
     <row r="34" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3697,142 +3728,142 @@
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160" t="s">
+      <c r="E37" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
     </row>
     <row r="38" spans="2:100" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="160" t="s">
+      <c r="E38" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="160"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="151" t="s">
+      <c r="S38" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="152"/>
+      <c r="T38" s="144"/>
+      <c r="U38" s="144"/>
+      <c r="V38" s="144"/>
+      <c r="W38" s="144"/>
+      <c r="X38" s="144"/>
+      <c r="Y38" s="144"/>
+      <c r="Z38" s="145"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="142"/>
-      <c r="AC38" s="142"/>
-      <c r="AD38" s="142"/>
-      <c r="AE38" s="142"/>
-      <c r="AF38" s="142"/>
-      <c r="AG38" s="142"/>
-      <c r="AH38" s="142"/>
-      <c r="AI38" s="143"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="136"/>
+      <c r="AH38" s="136"/>
+      <c r="AI38" s="138"/>
       <c r="AJ38" s="12"/>
-      <c r="AK38" s="138" t="s">
+      <c r="AK38" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="AL38" s="138"/>
-      <c r="AM38" s="138"/>
-      <c r="AN38" s="138"/>
-      <c r="AO38" s="138"/>
-      <c r="AP38" s="138"/>
-      <c r="AQ38" s="138"/>
-      <c r="AR38" s="139"/>
+      <c r="AL38" s="146"/>
+      <c r="AM38" s="146"/>
+      <c r="AN38" s="146"/>
+      <c r="AO38" s="146"/>
+      <c r="AP38" s="146"/>
+      <c r="AQ38" s="146"/>
+      <c r="AR38" s="147"/>
       <c r="AS38" s="12"/>
-      <c r="AT38" s="168" t="s">
+      <c r="AT38" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="AU38" s="168"/>
-      <c r="AV38" s="168"/>
-      <c r="AW38" s="168"/>
-      <c r="AX38" s="168"/>
-      <c r="AY38" s="168"/>
-      <c r="AZ38" s="168"/>
-      <c r="BA38" s="169"/>
+      <c r="AU38" s="181"/>
+      <c r="AV38" s="181"/>
+      <c r="AW38" s="181"/>
+      <c r="AX38" s="181"/>
+      <c r="AY38" s="181"/>
+      <c r="AZ38" s="181"/>
+      <c r="BA38" s="182"/>
       <c r="BB38" s="12"/>
-      <c r="BC38" s="157" t="s">
+      <c r="BC38" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="BD38" s="157"/>
-      <c r="BE38" s="157"/>
-      <c r="BF38" s="157"/>
-      <c r="BG38" s="157"/>
-      <c r="BH38" s="157"/>
-      <c r="BI38" s="157"/>
-      <c r="BJ38" s="158"/>
+      <c r="BD38" s="154"/>
+      <c r="BE38" s="154"/>
+      <c r="BF38" s="154"/>
+      <c r="BG38" s="154"/>
+      <c r="BH38" s="154"/>
+      <c r="BI38" s="154"/>
+      <c r="BJ38" s="155"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="151" t="s">
+      <c r="BL38" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="BM38" s="151"/>
-      <c r="BN38" s="151"/>
-      <c r="BO38" s="151"/>
-      <c r="BP38" s="151"/>
-      <c r="BQ38" s="151"/>
-      <c r="BR38" s="151"/>
-      <c r="BS38" s="152"/>
+      <c r="BM38" s="144"/>
+      <c r="BN38" s="144"/>
+      <c r="BO38" s="144"/>
+      <c r="BP38" s="144"/>
+      <c r="BQ38" s="144"/>
+      <c r="BR38" s="144"/>
+      <c r="BS38" s="145"/>
       <c r="BT38" s="12"/>
-      <c r="BU38" s="154" t="s">
+      <c r="BU38" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="BV38" s="154"/>
-      <c r="BW38" s="154"/>
-      <c r="BX38" s="154"/>
-      <c r="BY38" s="154"/>
-      <c r="BZ38" s="154"/>
-      <c r="CA38" s="154"/>
-      <c r="CB38" s="155"/>
+      <c r="BV38" s="139"/>
+      <c r="BW38" s="139"/>
+      <c r="BX38" s="139"/>
+      <c r="BY38" s="139"/>
+      <c r="BZ38" s="139"/>
+      <c r="CA38" s="139"/>
+      <c r="CB38" s="140"/>
       <c r="CC38" s="12"/>
-      <c r="CD38" s="182" t="s">
+      <c r="CD38" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="CE38" s="182"/>
-      <c r="CF38" s="182"/>
-      <c r="CG38" s="182"/>
-      <c r="CH38" s="182"/>
-      <c r="CI38" s="182"/>
-      <c r="CJ38" s="182"/>
-      <c r="CK38" s="183"/>
+      <c r="CE38" s="150"/>
+      <c r="CF38" s="150"/>
+      <c r="CG38" s="150"/>
+      <c r="CH38" s="150"/>
+      <c r="CI38" s="150"/>
+      <c r="CJ38" s="150"/>
+      <c r="CK38" s="151"/>
       <c r="CL38" s="12"/>
-      <c r="CM38" s="184" t="s">
+      <c r="CM38" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="CN38" s="184"/>
-      <c r="CO38" s="184"/>
-      <c r="CP38" s="184"/>
-      <c r="CQ38" s="184"/>
-      <c r="CR38" s="184"/>
-      <c r="CS38" s="184"/>
-      <c r="CT38" s="185"/>
+      <c r="CN38" s="152"/>
+      <c r="CO38" s="152"/>
+      <c r="CP38" s="152"/>
+      <c r="CQ38" s="152"/>
+      <c r="CR38" s="152"/>
+      <c r="CS38" s="152"/>
+      <c r="CT38" s="153"/>
       <c r="CU38" s="12"/>
     </row>
     <row r="39" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4126,7 +4157,7 @@
       </c>
     </row>
     <row r="40" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="177" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="73"/>
@@ -4317,7 +4348,7 @@
       <c r="CV40" s="82"/>
     </row>
     <row r="41" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B41" s="136"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="75"/>
       <c r="D41" s="76"/>
       <c r="E41" s="68"/>
@@ -4498,7 +4529,7 @@
       <c r="CV41" s="84"/>
     </row>
     <row r="42" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B42" s="136"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="75"/>
       <c r="D42" s="76"/>
       <c r="E42" s="68"/>
@@ -4631,7 +4662,7 @@
       <c r="CV42" s="84"/>
     </row>
     <row r="43" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B43" s="136"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="75"/>
       <c r="D43" s="76"/>
       <c r="E43" s="68"/>
@@ -4762,7 +4793,7 @@
       <c r="CV43" s="84"/>
     </row>
     <row r="44" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B44" s="136"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="75"/>
       <c r="D44" s="76"/>
       <c r="E44" s="68"/>
@@ -4887,7 +4918,7 @@
       <c r="CV44" s="84"/>
     </row>
     <row r="45" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B45" s="136"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
       <c r="E45" s="68"/>
@@ -5012,7 +5043,7 @@
       <c r="CV45" s="84"/>
     </row>
     <row r="46" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="137"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="77"/>
       <c r="D46" s="78"/>
       <c r="E46" s="70"/>
@@ -5243,114 +5274,114 @@
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="160"/>
-      <c r="M48" s="160" t="s">
+      <c r="E48" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="143"/>
+      <c r="M48" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="160"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="160"/>
+      <c r="N48" s="143"/>
+      <c r="O48" s="143"/>
+      <c r="P48" s="143"/>
+      <c r="Q48" s="143"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="151" t="s">
+      <c r="S48" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="152"/>
+      <c r="T48" s="144"/>
+      <c r="U48" s="144"/>
+      <c r="V48" s="144"/>
+      <c r="W48" s="144"/>
+      <c r="X48" s="144"/>
+      <c r="Y48" s="144"/>
+      <c r="Z48" s="145"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="142"/>
-      <c r="AC48" s="142"/>
-      <c r="AD48" s="142"/>
-      <c r="AE48" s="142"/>
-      <c r="AF48" s="142"/>
-      <c r="AG48" s="142"/>
-      <c r="AH48" s="142"/>
-      <c r="AI48" s="143"/>
+      <c r="AB48" s="136"/>
+      <c r="AC48" s="136"/>
+      <c r="AD48" s="136"/>
+      <c r="AE48" s="136"/>
+      <c r="AF48" s="136"/>
+      <c r="AG48" s="136"/>
+      <c r="AH48" s="136"/>
+      <c r="AI48" s="138"/>
       <c r="AJ48" s="12"/>
-      <c r="AK48" s="138" t="s">
+      <c r="AK48" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="AL48" s="138"/>
-      <c r="AM48" s="138"/>
-      <c r="AN48" s="138"/>
-      <c r="AO48" s="138"/>
-      <c r="AP48" s="138"/>
-      <c r="AQ48" s="138"/>
-      <c r="AR48" s="139"/>
+      <c r="AL48" s="146"/>
+      <c r="AM48" s="146"/>
+      <c r="AN48" s="146"/>
+      <c r="AO48" s="146"/>
+      <c r="AP48" s="146"/>
+      <c r="AQ48" s="146"/>
+      <c r="AR48" s="147"/>
       <c r="AS48" s="12"/>
-      <c r="AT48" s="180" t="s">
+      <c r="AT48" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="AU48" s="180"/>
-      <c r="AV48" s="180"/>
-      <c r="AW48" s="180"/>
-      <c r="AX48" s="180"/>
-      <c r="AY48" s="180"/>
-      <c r="AZ48" s="180"/>
-      <c r="BA48" s="181"/>
+      <c r="AU48" s="148"/>
+      <c r="AV48" s="148"/>
+      <c r="AW48" s="148"/>
+      <c r="AX48" s="148"/>
+      <c r="AY48" s="148"/>
+      <c r="AZ48" s="148"/>
+      <c r="BA48" s="149"/>
       <c r="BB48" s="12"/>
-      <c r="BC48" s="142" t="s">
+      <c r="BC48" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="BD48" s="142"/>
-      <c r="BE48" s="142"/>
-      <c r="BF48" s="142"/>
-      <c r="BG48" s="142"/>
-      <c r="BH48" s="142"/>
-      <c r="BI48" s="142"/>
-      <c r="BJ48" s="143"/>
+      <c r="BD48" s="136"/>
+      <c r="BE48" s="136"/>
+      <c r="BF48" s="136"/>
+      <c r="BG48" s="136"/>
+      <c r="BH48" s="136"/>
+      <c r="BI48" s="136"/>
+      <c r="BJ48" s="138"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="154" t="s">
+      <c r="BL48" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="BM48" s="154"/>
-      <c r="BN48" s="154"/>
-      <c r="BO48" s="154"/>
-      <c r="BP48" s="154"/>
-      <c r="BQ48" s="154"/>
-      <c r="BR48" s="154"/>
-      <c r="BS48" s="155"/>
+      <c r="BM48" s="139"/>
+      <c r="BN48" s="139"/>
+      <c r="BO48" s="139"/>
+      <c r="BP48" s="139"/>
+      <c r="BQ48" s="139"/>
+      <c r="BR48" s="139"/>
+      <c r="BS48" s="140"/>
       <c r="BT48" s="12"/>
-      <c r="BU48" s="142"/>
-      <c r="BV48" s="142"/>
-      <c r="BW48" s="142"/>
-      <c r="BX48" s="142"/>
-      <c r="BY48" s="142"/>
-      <c r="BZ48" s="142"/>
-      <c r="CA48" s="142"/>
-      <c r="CB48" s="143"/>
+      <c r="BU48" s="136"/>
+      <c r="BV48" s="136"/>
+      <c r="BW48" s="136"/>
+      <c r="BX48" s="136"/>
+      <c r="BY48" s="136"/>
+      <c r="BZ48" s="136"/>
+      <c r="CA48" s="136"/>
+      <c r="CB48" s="138"/>
       <c r="CC48" s="12"/>
-      <c r="CD48" s="178"/>
-      <c r="CE48" s="178"/>
-      <c r="CF48" s="178"/>
-      <c r="CG48" s="178"/>
-      <c r="CH48" s="178"/>
-      <c r="CI48" s="178"/>
-      <c r="CJ48" s="178"/>
-      <c r="CK48" s="179"/>
+      <c r="CD48" s="141"/>
+      <c r="CE48" s="141"/>
+      <c r="CF48" s="141"/>
+      <c r="CG48" s="141"/>
+      <c r="CH48" s="141"/>
+      <c r="CI48" s="141"/>
+      <c r="CJ48" s="141"/>
+      <c r="CK48" s="142"/>
       <c r="CL48" s="12"/>
-      <c r="CM48" s="142"/>
-      <c r="CN48" s="142"/>
-      <c r="CO48" s="142"/>
-      <c r="CP48" s="142"/>
-      <c r="CQ48" s="142"/>
-      <c r="CR48" s="142"/>
-      <c r="CS48" s="142"/>
-      <c r="CT48" s="143"/>
+      <c r="CM48" s="136"/>
+      <c r="CN48" s="136"/>
+      <c r="CO48" s="136"/>
+      <c r="CP48" s="136"/>
+      <c r="CQ48" s="136"/>
+      <c r="CR48" s="136"/>
+      <c r="CS48" s="136"/>
+      <c r="CT48" s="138"/>
       <c r="CU48" s="12"/>
       <c r="CV48" s="61"/>
     </row>
@@ -5648,7 +5679,7 @@
       <c r="CV49" s="61"/>
     </row>
     <row r="50" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="183" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="93" t="s">
@@ -5944,7 +5975,7 @@
       </c>
     </row>
     <row r="51" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B51" s="171"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="89" t="s">
         <v>6</v>
       </c>
@@ -6238,7 +6269,7 @@
       </c>
     </row>
     <row r="52" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B52" s="171"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="89" t="s">
         <v>7</v>
       </c>
@@ -6532,7 +6563,7 @@
       </c>
     </row>
     <row r="53" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B53" s="171"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="89" t="s">
         <v>9</v>
       </c>
@@ -6824,7 +6855,7 @@
       </c>
     </row>
     <row r="54" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B54" s="171"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="89" t="s">
         <v>10</v>
       </c>
@@ -7118,7 +7149,7 @@
       </c>
     </row>
     <row r="55" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B55" s="171"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="89" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7443,7 @@
       </c>
     </row>
     <row r="56" spans="2:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="171"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="89" t="s">
         <v>12</v>
       </c>
@@ -7706,7 +7737,7 @@
       </c>
     </row>
     <row r="57" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B57" s="171"/>
+      <c r="B57" s="184"/>
       <c r="C57" s="89" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +8031,7 @@
       </c>
     </row>
     <row r="58" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B58" s="171"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="89" t="s">
         <v>17</v>
       </c>
@@ -8294,7 +8325,7 @@
       </c>
     </row>
     <row r="59" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B59" s="171"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="89" t="s">
         <v>16</v>
       </c>
@@ -8588,7 +8619,7 @@
       </c>
     </row>
     <row r="60" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="172"/>
+      <c r="B60" s="185"/>
       <c r="C60" s="102" t="s">
         <v>18</v>
       </c>
@@ -8982,7 +9013,7 @@
       <c r="CU61" s="26"/>
     </row>
     <row r="62" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="156" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
@@ -9278,7 +9309,7 @@
       </c>
     </row>
     <row r="63" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B63" s="166"/>
+      <c r="B63" s="157"/>
       <c r="C63" t="s">
         <v>21</v>
       </c>
@@ -9572,7 +9603,7 @@
       </c>
     </row>
     <row r="64" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B64" s="166"/>
+      <c r="B64" s="157"/>
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -9866,7 +9897,7 @@
       </c>
     </row>
     <row r="65" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B65" s="166"/>
+      <c r="B65" s="157"/>
       <c r="C65" t="s">
         <v>23</v>
       </c>
@@ -10160,7 +10191,7 @@
       </c>
     </row>
     <row r="66" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="167"/>
+      <c r="B66" s="158"/>
       <c r="C66" t="s">
         <v>24</v>
       </c>
@@ -10554,7 +10585,7 @@
       <c r="CU67" s="25"/>
     </row>
     <row r="68" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B68" s="165" t="s">
+      <c r="B68" s="156" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
@@ -10796,7 +10827,7 @@
       </c>
     </row>
     <row r="69" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B69" s="166"/>
+      <c r="B69" s="157"/>
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -11036,7 +11067,7 @@
       </c>
     </row>
     <row r="70" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B70" s="166"/>
+      <c r="B70" s="157"/>
       <c r="C70" t="s">
         <v>27</v>
       </c>
@@ -11276,7 +11307,7 @@
       </c>
     </row>
     <row r="71" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="167"/>
+      <c r="B71" s="158"/>
       <c r="C71" t="s">
         <v>28</v>
       </c>
@@ -11521,70 +11552,70 @@
       <c r="D72" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="153" t="s">
+      <c r="E72" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="156" t="s">
+      <c r="F72" s="139"/>
+      <c r="G72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="139"/>
+      <c r="K72" s="139"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="158"/>
-      <c r="R72" s="147" t="s">
+      <c r="N72" s="154"/>
+      <c r="O72" s="154"/>
+      <c r="P72" s="154"/>
+      <c r="Q72" s="155"/>
+      <c r="R72" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S72" s="148"/>
-      <c r="T72" s="148"/>
-      <c r="U72" s="148"/>
-      <c r="V72" s="148"/>
-      <c r="W72" s="148"/>
-      <c r="X72" s="148"/>
-      <c r="Y72" s="148"/>
-      <c r="Z72" s="148"/>
-      <c r="AA72" s="148"/>
-      <c r="AB72" s="148"/>
-      <c r="AC72" s="148"/>
-      <c r="AD72" s="148"/>
-      <c r="AE72" s="148"/>
-      <c r="AF72" s="148"/>
-      <c r="AG72" s="148"/>
-      <c r="AH72" s="148"/>
-      <c r="AI72" s="149"/>
-      <c r="AJ72" s="150" t="s">
+      <c r="S72" s="168"/>
+      <c r="T72" s="168"/>
+      <c r="U72" s="168"/>
+      <c r="V72" s="168"/>
+      <c r="W72" s="168"/>
+      <c r="X72" s="168"/>
+      <c r="Y72" s="168"/>
+      <c r="Z72" s="168"/>
+      <c r="AA72" s="168"/>
+      <c r="AB72" s="168"/>
+      <c r="AC72" s="168"/>
+      <c r="AD72" s="168"/>
+      <c r="AE72" s="168"/>
+      <c r="AF72" s="168"/>
+      <c r="AG72" s="168"/>
+      <c r="AH72" s="168"/>
+      <c r="AI72" s="169"/>
+      <c r="AJ72" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK72" s="151"/>
-      <c r="AL72" s="151"/>
-      <c r="AM72" s="151"/>
-      <c r="AN72" s="151"/>
-      <c r="AO72" s="151"/>
-      <c r="AP72" s="151"/>
-      <c r="AQ72" s="151"/>
-      <c r="AR72" s="151"/>
-      <c r="AS72" s="151"/>
-      <c r="AT72" s="151"/>
-      <c r="AU72" s="151"/>
-      <c r="AV72" s="151"/>
-      <c r="AW72" s="152"/>
+      <c r="AK72" s="144"/>
+      <c r="AL72" s="144"/>
+      <c r="AM72" s="144"/>
+      <c r="AN72" s="144"/>
+      <c r="AO72" s="144"/>
+      <c r="AP72" s="144"/>
+      <c r="AQ72" s="144"/>
+      <c r="AR72" s="144"/>
+      <c r="AS72" s="144"/>
+      <c r="AT72" s="144"/>
+      <c r="AU72" s="144"/>
+      <c r="AV72" s="144"/>
+      <c r="AW72" s="145"/>
       <c r="AX72" s="18"/>
-      <c r="AY72" s="144" t="s">
+      <c r="AY72" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AZ72" s="145"/>
-      <c r="BA72" s="145"/>
-      <c r="BB72" s="145"/>
-      <c r="BC72" s="145"/>
-      <c r="BD72" s="145"/>
-      <c r="BE72" s="145"/>
-      <c r="BF72" s="146"/>
+      <c r="AZ72" s="174"/>
+      <c r="BA72" s="174"/>
+      <c r="BB72" s="174"/>
+      <c r="BC72" s="174"/>
+      <c r="BD72" s="174"/>
+      <c r="BE72" s="174"/>
+      <c r="BF72" s="175"/>
       <c r="BG72" s="17"/>
       <c r="BH72" s="17"/>
       <c r="BI72" s="17"/>
@@ -12583,70 +12614,70 @@
       <c r="D76" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="153" t="s">
+      <c r="E76" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
-      <c r="L76" s="155"/>
-      <c r="M76" s="156" t="s">
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="139"/>
+      <c r="J76" s="139"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
-      <c r="Q76" s="158"/>
-      <c r="R76" s="147" t="s">
+      <c r="N76" s="154"/>
+      <c r="O76" s="154"/>
+      <c r="P76" s="154"/>
+      <c r="Q76" s="155"/>
+      <c r="R76" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S76" s="148"/>
-      <c r="T76" s="148"/>
-      <c r="U76" s="148"/>
-      <c r="V76" s="148"/>
-      <c r="W76" s="148"/>
-      <c r="X76" s="148"/>
-      <c r="Y76" s="148"/>
-      <c r="Z76" s="148"/>
-      <c r="AA76" s="148"/>
-      <c r="AB76" s="148"/>
-      <c r="AC76" s="148"/>
-      <c r="AD76" s="148"/>
-      <c r="AE76" s="148"/>
-      <c r="AF76" s="148"/>
-      <c r="AG76" s="148"/>
-      <c r="AH76" s="148"/>
-      <c r="AI76" s="149"/>
-      <c r="AJ76" s="150" t="s">
+      <c r="S76" s="168"/>
+      <c r="T76" s="168"/>
+      <c r="U76" s="168"/>
+      <c r="V76" s="168"/>
+      <c r="W76" s="168"/>
+      <c r="X76" s="168"/>
+      <c r="Y76" s="168"/>
+      <c r="Z76" s="168"/>
+      <c r="AA76" s="168"/>
+      <c r="AB76" s="168"/>
+      <c r="AC76" s="168"/>
+      <c r="AD76" s="168"/>
+      <c r="AE76" s="168"/>
+      <c r="AF76" s="168"/>
+      <c r="AG76" s="168"/>
+      <c r="AH76" s="168"/>
+      <c r="AI76" s="169"/>
+      <c r="AJ76" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK76" s="151"/>
-      <c r="AL76" s="151"/>
-      <c r="AM76" s="151"/>
-      <c r="AN76" s="151"/>
-      <c r="AO76" s="151"/>
-      <c r="AP76" s="151"/>
-      <c r="AQ76" s="151"/>
-      <c r="AR76" s="151"/>
-      <c r="AS76" s="151"/>
-      <c r="AT76" s="151"/>
-      <c r="AU76" s="151"/>
-      <c r="AV76" s="151"/>
-      <c r="AW76" s="152"/>
+      <c r="AK76" s="144"/>
+      <c r="AL76" s="144"/>
+      <c r="AM76" s="144"/>
+      <c r="AN76" s="144"/>
+      <c r="AO76" s="144"/>
+      <c r="AP76" s="144"/>
+      <c r="AQ76" s="144"/>
+      <c r="AR76" s="144"/>
+      <c r="AS76" s="144"/>
+      <c r="AT76" s="144"/>
+      <c r="AU76" s="144"/>
+      <c r="AV76" s="144"/>
+      <c r="AW76" s="145"/>
       <c r="AX76" s="18"/>
-      <c r="AY76" s="144" t="s">
+      <c r="AY76" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AZ76" s="145"/>
-      <c r="BA76" s="145"/>
-      <c r="BB76" s="145"/>
-      <c r="BC76" s="145"/>
-      <c r="BD76" s="145"/>
-      <c r="BE76" s="145"/>
-      <c r="BF76" s="146"/>
+      <c r="AZ76" s="174"/>
+      <c r="BA76" s="174"/>
+      <c r="BB76" s="174"/>
+      <c r="BC76" s="174"/>
+      <c r="BD76" s="174"/>
+      <c r="BE76" s="174"/>
+      <c r="BF76" s="175"/>
       <c r="BG76" s="15"/>
       <c r="BK76" s="16"/>
       <c r="BL76" s="23"/>
@@ -13646,70 +13677,70 @@
       <c r="D80" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="153" t="s">
+      <c r="E80" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="154"/>
-      <c r="L80" s="155"/>
-      <c r="M80" s="156" t="s">
+      <c r="F80" s="139"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="139"/>
+      <c r="I80" s="139"/>
+      <c r="J80" s="139"/>
+      <c r="K80" s="139"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="157"/>
-      <c r="O80" s="157"/>
-      <c r="P80" s="157"/>
-      <c r="Q80" s="158"/>
-      <c r="R80" s="147" t="s">
+      <c r="N80" s="154"/>
+      <c r="O80" s="154"/>
+      <c r="P80" s="154"/>
+      <c r="Q80" s="155"/>
+      <c r="R80" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S80" s="148"/>
-      <c r="T80" s="148"/>
-      <c r="U80" s="148"/>
-      <c r="V80" s="148"/>
-      <c r="W80" s="148"/>
-      <c r="X80" s="148"/>
-      <c r="Y80" s="148"/>
-      <c r="Z80" s="148"/>
-      <c r="AA80" s="148"/>
-      <c r="AB80" s="148"/>
-      <c r="AC80" s="148"/>
-      <c r="AD80" s="148"/>
-      <c r="AE80" s="148"/>
-      <c r="AF80" s="148"/>
-      <c r="AG80" s="148"/>
-      <c r="AH80" s="148"/>
-      <c r="AI80" s="149"/>
-      <c r="AJ80" s="150" t="s">
+      <c r="S80" s="168"/>
+      <c r="T80" s="168"/>
+      <c r="U80" s="168"/>
+      <c r="V80" s="168"/>
+      <c r="W80" s="168"/>
+      <c r="X80" s="168"/>
+      <c r="Y80" s="168"/>
+      <c r="Z80" s="168"/>
+      <c r="AA80" s="168"/>
+      <c r="AB80" s="168"/>
+      <c r="AC80" s="168"/>
+      <c r="AD80" s="168"/>
+      <c r="AE80" s="168"/>
+      <c r="AF80" s="168"/>
+      <c r="AG80" s="168"/>
+      <c r="AH80" s="168"/>
+      <c r="AI80" s="169"/>
+      <c r="AJ80" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK80" s="151"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="151"/>
-      <c r="AN80" s="151"/>
-      <c r="AO80" s="151"/>
-      <c r="AP80" s="151"/>
-      <c r="AQ80" s="151"/>
-      <c r="AR80" s="151"/>
-      <c r="AS80" s="151"/>
-      <c r="AT80" s="151"/>
-      <c r="AU80" s="151"/>
-      <c r="AV80" s="151"/>
-      <c r="AW80" s="152"/>
+      <c r="AK80" s="144"/>
+      <c r="AL80" s="144"/>
+      <c r="AM80" s="144"/>
+      <c r="AN80" s="144"/>
+      <c r="AO80" s="144"/>
+      <c r="AP80" s="144"/>
+      <c r="AQ80" s="144"/>
+      <c r="AR80" s="144"/>
+      <c r="AS80" s="144"/>
+      <c r="AT80" s="144"/>
+      <c r="AU80" s="144"/>
+      <c r="AV80" s="144"/>
+      <c r="AW80" s="145"/>
       <c r="AX80" s="18"/>
-      <c r="AY80" s="144" t="s">
+      <c r="AY80" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AZ80" s="145"/>
-      <c r="BA80" s="145"/>
-      <c r="BB80" s="145"/>
-      <c r="BC80" s="145"/>
-      <c r="BD80" s="145"/>
-      <c r="BE80" s="145"/>
-      <c r="BF80" s="146"/>
+      <c r="AZ80" s="174"/>
+      <c r="BA80" s="174"/>
+      <c r="BB80" s="174"/>
+      <c r="BC80" s="174"/>
+      <c r="BD80" s="174"/>
+      <c r="BE80" s="174"/>
+      <c r="BF80" s="175"/>
       <c r="BG80" s="15"/>
       <c r="BK80" s="16"/>
       <c r="BL80" s="23"/>
@@ -14699,70 +14730,70 @@
       <c r="D84" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="153" t="s">
+      <c r="E84" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="154"/>
-      <c r="L84" s="155"/>
-      <c r="M84" s="156" t="s">
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="140"/>
+      <c r="M84" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="157"/>
-      <c r="O84" s="157"/>
-      <c r="P84" s="157"/>
-      <c r="Q84" s="158"/>
-      <c r="R84" s="147" t="s">
+      <c r="N84" s="154"/>
+      <c r="O84" s="154"/>
+      <c r="P84" s="154"/>
+      <c r="Q84" s="155"/>
+      <c r="R84" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S84" s="148"/>
-      <c r="T84" s="148"/>
-      <c r="U84" s="148"/>
-      <c r="V84" s="148"/>
-      <c r="W84" s="148"/>
-      <c r="X84" s="148"/>
-      <c r="Y84" s="148"/>
-      <c r="Z84" s="148"/>
-      <c r="AA84" s="148"/>
-      <c r="AB84" s="148"/>
-      <c r="AC84" s="148"/>
-      <c r="AD84" s="148"/>
-      <c r="AE84" s="148"/>
-      <c r="AF84" s="148"/>
-      <c r="AG84" s="148"/>
-      <c r="AH84" s="148"/>
-      <c r="AI84" s="149"/>
-      <c r="AJ84" s="150" t="s">
+      <c r="S84" s="168"/>
+      <c r="T84" s="168"/>
+      <c r="U84" s="168"/>
+      <c r="V84" s="168"/>
+      <c r="W84" s="168"/>
+      <c r="X84" s="168"/>
+      <c r="Y84" s="168"/>
+      <c r="Z84" s="168"/>
+      <c r="AA84" s="168"/>
+      <c r="AB84" s="168"/>
+      <c r="AC84" s="168"/>
+      <c r="AD84" s="168"/>
+      <c r="AE84" s="168"/>
+      <c r="AF84" s="168"/>
+      <c r="AG84" s="168"/>
+      <c r="AH84" s="168"/>
+      <c r="AI84" s="169"/>
+      <c r="AJ84" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK84" s="151"/>
-      <c r="AL84" s="151"/>
-      <c r="AM84" s="151"/>
-      <c r="AN84" s="151"/>
-      <c r="AO84" s="151"/>
-      <c r="AP84" s="151"/>
-      <c r="AQ84" s="151"/>
-      <c r="AR84" s="151"/>
-      <c r="AS84" s="151"/>
-      <c r="AT84" s="151"/>
-      <c r="AU84" s="151"/>
-      <c r="AV84" s="151"/>
-      <c r="AW84" s="152"/>
+      <c r="AK84" s="144"/>
+      <c r="AL84" s="144"/>
+      <c r="AM84" s="144"/>
+      <c r="AN84" s="144"/>
+      <c r="AO84" s="144"/>
+      <c r="AP84" s="144"/>
+      <c r="AQ84" s="144"/>
+      <c r="AR84" s="144"/>
+      <c r="AS84" s="144"/>
+      <c r="AT84" s="144"/>
+      <c r="AU84" s="144"/>
+      <c r="AV84" s="144"/>
+      <c r="AW84" s="145"/>
       <c r="AX84" s="18"/>
-      <c r="AY84" s="144" t="s">
+      <c r="AY84" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AZ84" s="145"/>
-      <c r="BA84" s="145"/>
-      <c r="BB84" s="145"/>
-      <c r="BC84" s="145"/>
-      <c r="BD84" s="145"/>
-      <c r="BE84" s="145"/>
-      <c r="BF84" s="146"/>
+      <c r="AZ84" s="174"/>
+      <c r="BA84" s="174"/>
+      <c r="BB84" s="174"/>
+      <c r="BC84" s="174"/>
+      <c r="BD84" s="174"/>
+      <c r="BE84" s="174"/>
+      <c r="BF84" s="175"/>
       <c r="BG84" s="15"/>
       <c r="BK84" s="16"/>
       <c r="BL84" s="23"/>
@@ -15837,59 +15868,59 @@
       <c r="D88" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="153" t="s">
+      <c r="E88" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="155"/>
-      <c r="M88" s="156" t="s">
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="139"/>
+      <c r="J88" s="139"/>
+      <c r="K88" s="139"/>
+      <c r="L88" s="140"/>
+      <c r="M88" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N88" s="157"/>
-      <c r="O88" s="157"/>
-      <c r="P88" s="157"/>
-      <c r="Q88" s="158"/>
-      <c r="R88" s="147" t="s">
+      <c r="N88" s="154"/>
+      <c r="O88" s="154"/>
+      <c r="P88" s="154"/>
+      <c r="Q88" s="155"/>
+      <c r="R88" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S88" s="148"/>
-      <c r="T88" s="148"/>
-      <c r="U88" s="148"/>
-      <c r="V88" s="148"/>
-      <c r="W88" s="148"/>
-      <c r="X88" s="148"/>
-      <c r="Y88" s="148"/>
-      <c r="Z88" s="148"/>
-      <c r="AA88" s="148"/>
-      <c r="AB88" s="148"/>
-      <c r="AC88" s="148"/>
-      <c r="AD88" s="148"/>
-      <c r="AE88" s="148"/>
-      <c r="AF88" s="148"/>
-      <c r="AG88" s="148"/>
-      <c r="AH88" s="148"/>
-      <c r="AI88" s="149"/>
-      <c r="AJ88" s="150" t="s">
+      <c r="S88" s="168"/>
+      <c r="T88" s="168"/>
+      <c r="U88" s="168"/>
+      <c r="V88" s="168"/>
+      <c r="W88" s="168"/>
+      <c r="X88" s="168"/>
+      <c r="Y88" s="168"/>
+      <c r="Z88" s="168"/>
+      <c r="AA88" s="168"/>
+      <c r="AB88" s="168"/>
+      <c r="AC88" s="168"/>
+      <c r="AD88" s="168"/>
+      <c r="AE88" s="168"/>
+      <c r="AF88" s="168"/>
+      <c r="AG88" s="168"/>
+      <c r="AH88" s="168"/>
+      <c r="AI88" s="169"/>
+      <c r="AJ88" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK88" s="151"/>
-      <c r="AL88" s="151"/>
-      <c r="AM88" s="151"/>
-      <c r="AN88" s="151"/>
-      <c r="AO88" s="151"/>
-      <c r="AP88" s="151"/>
-      <c r="AQ88" s="151"/>
-      <c r="AR88" s="151"/>
-      <c r="AS88" s="151"/>
-      <c r="AT88" s="151"/>
-      <c r="AU88" s="151"/>
-      <c r="AV88" s="151"/>
-      <c r="AW88" s="152"/>
+      <c r="AK88" s="144"/>
+      <c r="AL88" s="144"/>
+      <c r="AM88" s="144"/>
+      <c r="AN88" s="144"/>
+      <c r="AO88" s="144"/>
+      <c r="AP88" s="144"/>
+      <c r="AQ88" s="144"/>
+      <c r="AR88" s="144"/>
+      <c r="AS88" s="144"/>
+      <c r="AT88" s="144"/>
+      <c r="AU88" s="144"/>
+      <c r="AV88" s="144"/>
+      <c r="AW88" s="145"/>
       <c r="AX88" s="18"/>
       <c r="CK88">
         <v>12</v>
@@ -16232,59 +16263,59 @@
       <c r="D92" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="153" t="s">
+      <c r="E92" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="155"/>
-      <c r="M92" s="156" t="s">
+      <c r="F92" s="139"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
+      <c r="I92" s="139"/>
+      <c r="J92" s="139"/>
+      <c r="K92" s="139"/>
+      <c r="L92" s="140"/>
+      <c r="M92" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="157"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="157"/>
-      <c r="Q92" s="158"/>
-      <c r="R92" s="147" t="s">
+      <c r="N92" s="154"/>
+      <c r="O92" s="154"/>
+      <c r="P92" s="154"/>
+      <c r="Q92" s="155"/>
+      <c r="R92" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S92" s="148"/>
-      <c r="T92" s="148"/>
-      <c r="U92" s="148"/>
-      <c r="V92" s="148"/>
-      <c r="W92" s="148"/>
-      <c r="X92" s="148"/>
-      <c r="Y92" s="148"/>
-      <c r="Z92" s="148"/>
-      <c r="AA92" s="148"/>
-      <c r="AB92" s="148"/>
-      <c r="AC92" s="148"/>
-      <c r="AD92" s="148"/>
-      <c r="AE92" s="148"/>
-      <c r="AF92" s="148"/>
-      <c r="AG92" s="148"/>
-      <c r="AH92" s="148"/>
-      <c r="AI92" s="149"/>
-      <c r="AJ92" s="150" t="s">
+      <c r="S92" s="168"/>
+      <c r="T92" s="168"/>
+      <c r="U92" s="168"/>
+      <c r="V92" s="168"/>
+      <c r="W92" s="168"/>
+      <c r="X92" s="168"/>
+      <c r="Y92" s="168"/>
+      <c r="Z92" s="168"/>
+      <c r="AA92" s="168"/>
+      <c r="AB92" s="168"/>
+      <c r="AC92" s="168"/>
+      <c r="AD92" s="168"/>
+      <c r="AE92" s="168"/>
+      <c r="AF92" s="168"/>
+      <c r="AG92" s="168"/>
+      <c r="AH92" s="168"/>
+      <c r="AI92" s="169"/>
+      <c r="AJ92" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK92" s="151"/>
-      <c r="AL92" s="151"/>
-      <c r="AM92" s="151"/>
-      <c r="AN92" s="151"/>
-      <c r="AO92" s="151"/>
-      <c r="AP92" s="151"/>
-      <c r="AQ92" s="151"/>
-      <c r="AR92" s="151"/>
-      <c r="AS92" s="151"/>
-      <c r="AT92" s="151"/>
-      <c r="AU92" s="151"/>
-      <c r="AV92" s="151"/>
-      <c r="AW92" s="152"/>
+      <c r="AK92" s="144"/>
+      <c r="AL92" s="144"/>
+      <c r="AM92" s="144"/>
+      <c r="AN92" s="144"/>
+      <c r="AO92" s="144"/>
+      <c r="AP92" s="144"/>
+      <c r="AQ92" s="144"/>
+      <c r="AR92" s="144"/>
+      <c r="AS92" s="144"/>
+      <c r="AT92" s="144"/>
+      <c r="AU92" s="144"/>
+      <c r="AV92" s="144"/>
+      <c r="AW92" s="145"/>
       <c r="AX92" s="18"/>
     </row>
     <row r="93" spans="2:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16625,59 +16656,59 @@
       <c r="D96" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="153" t="s">
+      <c r="E96" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="154"/>
-      <c r="G96" s="154"/>
-      <c r="H96" s="154"/>
-      <c r="I96" s="154"/>
-      <c r="J96" s="154"/>
-      <c r="K96" s="154"/>
-      <c r="L96" s="155"/>
-      <c r="M96" s="156" t="s">
+      <c r="F96" s="139"/>
+      <c r="G96" s="139"/>
+      <c r="H96" s="139"/>
+      <c r="I96" s="139"/>
+      <c r="J96" s="139"/>
+      <c r="K96" s="139"/>
+      <c r="L96" s="140"/>
+      <c r="M96" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="157"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="157"/>
-      <c r="Q96" s="158"/>
-      <c r="R96" s="147" t="s">
+      <c r="N96" s="154"/>
+      <c r="O96" s="154"/>
+      <c r="P96" s="154"/>
+      <c r="Q96" s="155"/>
+      <c r="R96" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="S96" s="148"/>
-      <c r="T96" s="148"/>
-      <c r="U96" s="148"/>
-      <c r="V96" s="148"/>
-      <c r="W96" s="148"/>
-      <c r="X96" s="148"/>
-      <c r="Y96" s="148"/>
-      <c r="Z96" s="148"/>
-      <c r="AA96" s="148"/>
-      <c r="AB96" s="148"/>
-      <c r="AC96" s="148"/>
-      <c r="AD96" s="148"/>
-      <c r="AE96" s="148"/>
-      <c r="AF96" s="148"/>
-      <c r="AG96" s="148"/>
-      <c r="AH96" s="148"/>
-      <c r="AI96" s="149"/>
-      <c r="AJ96" s="150" t="s">
+      <c r="S96" s="168"/>
+      <c r="T96" s="168"/>
+      <c r="U96" s="168"/>
+      <c r="V96" s="168"/>
+      <c r="W96" s="168"/>
+      <c r="X96" s="168"/>
+      <c r="Y96" s="168"/>
+      <c r="Z96" s="168"/>
+      <c r="AA96" s="168"/>
+      <c r="AB96" s="168"/>
+      <c r="AC96" s="168"/>
+      <c r="AD96" s="168"/>
+      <c r="AE96" s="168"/>
+      <c r="AF96" s="168"/>
+      <c r="AG96" s="168"/>
+      <c r="AH96" s="168"/>
+      <c r="AI96" s="169"/>
+      <c r="AJ96" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AK96" s="151"/>
-      <c r="AL96" s="151"/>
-      <c r="AM96" s="151"/>
-      <c r="AN96" s="151"/>
-      <c r="AO96" s="151"/>
-      <c r="AP96" s="151"/>
-      <c r="AQ96" s="151"/>
-      <c r="AR96" s="151"/>
-      <c r="AS96" s="151"/>
-      <c r="AT96" s="151"/>
-      <c r="AU96" s="151"/>
-      <c r="AV96" s="151"/>
-      <c r="AW96" s="152"/>
+      <c r="AK96" s="144"/>
+      <c r="AL96" s="144"/>
+      <c r="AM96" s="144"/>
+      <c r="AN96" s="144"/>
+      <c r="AO96" s="144"/>
+      <c r="AP96" s="144"/>
+      <c r="AQ96" s="144"/>
+      <c r="AR96" s="144"/>
+      <c r="AS96" s="144"/>
+      <c r="AT96" s="144"/>
+      <c r="AU96" s="144"/>
+      <c r="AV96" s="144"/>
+      <c r="AW96" s="145"/>
       <c r="AX96" s="18"/>
       <c r="BA96" s="49"/>
       <c r="BB96" s="49"/>
@@ -17996,23 +18027,23 @@
       <c r="D106" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="160"/>
-      <c r="G106" s="160"/>
-      <c r="H106" s="160"/>
-      <c r="I106" s="160"/>
-      <c r="J106" s="160"/>
-      <c r="K106" s="160"/>
-      <c r="L106" s="160"/>
-      <c r="M106" s="160" t="s">
+      <c r="E106" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="143"/>
+      <c r="G106" s="143"/>
+      <c r="H106" s="143"/>
+      <c r="I106" s="143"/>
+      <c r="J106" s="143"/>
+      <c r="K106" s="143"/>
+      <c r="L106" s="143"/>
+      <c r="M106" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="N106" s="160"/>
-      <c r="O106" s="160"/>
-      <c r="P106" s="160"/>
-      <c r="Q106" s="160"/>
+      <c r="N106" s="143"/>
+      <c r="O106" s="143"/>
+      <c r="P106" s="143"/>
+      <c r="Q106" s="143"/>
     </row>
     <row r="107" spans="3:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="9">
@@ -18110,25 +18141,25 @@
       <c r="D111" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="160"/>
-      <c r="G111" s="160"/>
-      <c r="H111" s="160"/>
-      <c r="I111" s="160"/>
-      <c r="J111" s="160"/>
-      <c r="K111" s="160"/>
-      <c r="L111" s="173"/>
-      <c r="M111" s="174" t="s">
+      <c r="E111" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="143"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="143"/>
+      <c r="I111" s="143"/>
+      <c r="J111" s="143"/>
+      <c r="K111" s="143"/>
+      <c r="L111" s="162"/>
+      <c r="M111" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="N111" s="175"/>
-      <c r="O111" s="175"/>
-      <c r="P111" s="175"/>
-      <c r="Q111" s="175"/>
-      <c r="R111" s="176"/>
-      <c r="S111" s="177"/>
+      <c r="N111" s="164"/>
+      <c r="O111" s="164"/>
+      <c r="P111" s="164"/>
+      <c r="Q111" s="164"/>
+      <c r="R111" s="165"/>
+      <c r="S111" s="166"/>
       <c r="T111" t="s">
         <v>36</v>
       </c>
@@ -18238,12 +18269,84 @@
       <c r="T113" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="DE14:DL14"/>
-    <mergeCell ref="DN14:DU14"/>
-    <mergeCell ref="DW14:ED14"/>
-    <mergeCell ref="EF14:EM14"/>
-    <mergeCell ref="EO14:EV14"/>
+  <mergeCells count="98">
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AT26:BA26"/>
+    <mergeCell ref="BC26:BJ26"/>
+    <mergeCell ref="BL26:BO26"/>
+    <mergeCell ref="BP26:BS26"/>
+    <mergeCell ref="AK38:AR38"/>
+    <mergeCell ref="AT38:BA38"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="AY84:BF84"/>
+    <mergeCell ref="AY80:BF80"/>
+    <mergeCell ref="AY76:BF76"/>
+    <mergeCell ref="AY72:BF72"/>
+    <mergeCell ref="R72:AI72"/>
+    <mergeCell ref="AJ72:AW72"/>
+    <mergeCell ref="E84:L84"/>
+    <mergeCell ref="M84:Q84"/>
+    <mergeCell ref="R84:AI84"/>
+    <mergeCell ref="R88:AI88"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="S38:Z38"/>
+    <mergeCell ref="AB38:AI38"/>
+    <mergeCell ref="AJ96:AW96"/>
+    <mergeCell ref="AJ92:AW92"/>
+    <mergeCell ref="AJ88:AW88"/>
+    <mergeCell ref="AJ80:AW80"/>
+    <mergeCell ref="AJ76:AW76"/>
+    <mergeCell ref="AJ84:AW84"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="BU14:CB14"/>
+    <mergeCell ref="CD14:CK14"/>
+    <mergeCell ref="CM14:CT14"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AK14:AR14"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BC14:BJ14"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="E106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="E111:L111"/>
+    <mergeCell ref="M111:S111"/>
+    <mergeCell ref="E88:L88"/>
+    <mergeCell ref="M88:Q88"/>
+    <mergeCell ref="E92:L92"/>
+    <mergeCell ref="M92:Q92"/>
+    <mergeCell ref="R92:AI92"/>
+    <mergeCell ref="R96:AI96"/>
+    <mergeCell ref="R80:AI80"/>
+    <mergeCell ref="R76:AI76"/>
+    <mergeCell ref="E96:L96"/>
+    <mergeCell ref="M96:Q96"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="E72:L72"/>
+    <mergeCell ref="E76:L76"/>
+    <mergeCell ref="E80:L80"/>
+    <mergeCell ref="M72:Q72"/>
+    <mergeCell ref="M76:Q76"/>
+    <mergeCell ref="M80:Q80"/>
     <mergeCell ref="BL48:BS48"/>
     <mergeCell ref="BU48:CB48"/>
     <mergeCell ref="CD48:CK48"/>
@@ -18260,82 +18363,11 @@
     <mergeCell ref="BC38:BJ38"/>
     <mergeCell ref="BL38:BS38"/>
     <mergeCell ref="BL14:BS14"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="E72:L72"/>
-    <mergeCell ref="E76:L76"/>
-    <mergeCell ref="E80:L80"/>
-    <mergeCell ref="M72:Q72"/>
-    <mergeCell ref="M76:Q76"/>
-    <mergeCell ref="M80:Q80"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="E106:L106"/>
-    <mergeCell ref="M106:Q106"/>
-    <mergeCell ref="E111:L111"/>
-    <mergeCell ref="M111:S111"/>
-    <mergeCell ref="E88:L88"/>
-    <mergeCell ref="M88:Q88"/>
-    <mergeCell ref="E92:L92"/>
-    <mergeCell ref="M92:Q92"/>
-    <mergeCell ref="R92:AI92"/>
-    <mergeCell ref="BU14:CB14"/>
-    <mergeCell ref="CD14:CK14"/>
-    <mergeCell ref="CM14:CT14"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AK14:AR14"/>
-    <mergeCell ref="AT14:BA14"/>
-    <mergeCell ref="BC14:BJ14"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="AJ96:AW96"/>
-    <mergeCell ref="AJ92:AW92"/>
-    <mergeCell ref="AJ88:AW88"/>
-    <mergeCell ref="AJ80:AW80"/>
-    <mergeCell ref="AJ76:AW76"/>
-    <mergeCell ref="AJ84:AW84"/>
-    <mergeCell ref="R96:AI96"/>
-    <mergeCell ref="R80:AI80"/>
-    <mergeCell ref="R76:AI76"/>
-    <mergeCell ref="E96:L96"/>
-    <mergeCell ref="M96:Q96"/>
-    <mergeCell ref="E84:L84"/>
-    <mergeCell ref="M84:Q84"/>
-    <mergeCell ref="R84:AI84"/>
-    <mergeCell ref="R88:AI88"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="AY84:BF84"/>
-    <mergeCell ref="AY80:BF80"/>
-    <mergeCell ref="AY76:BF76"/>
-    <mergeCell ref="AY72:BF72"/>
-    <mergeCell ref="R72:AI72"/>
-    <mergeCell ref="AJ72:AW72"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="S38:Z38"/>
-    <mergeCell ref="AB38:AI38"/>
-    <mergeCell ref="AK38:AR38"/>
-    <mergeCell ref="AT38:BA38"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="E38:L38"/>
-    <mergeCell ref="B50:B60"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AT26:BA26"/>
-    <mergeCell ref="BC26:BJ26"/>
-    <mergeCell ref="BL26:BS26"/>
+    <mergeCell ref="DE14:DL14"/>
+    <mergeCell ref="DN14:DU14"/>
+    <mergeCell ref="DW14:ED14"/>
+    <mergeCell ref="EF14:EM14"/>
+    <mergeCell ref="EO14:EV14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" scale="30" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DDS-2.1(Arton)/Омега протокол.xlsx
+++ b/DDS-2.1(Arton)/Омега протокол.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBD85A-52F4-43BE-A412-94B70EA758FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B672E-11FC-462E-A023-3CF741E33EAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>Адрес</t>
   </si>
@@ -192,12 +192,30 @@
   <si>
     <t xml:space="preserve">Ток светодиода </t>
   </si>
+  <si>
+    <t>Тревога</t>
+  </si>
+  <si>
+    <t>Светодиод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изолятор </t>
+  </si>
+  <si>
+    <t>Изол.прог.</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрязнение </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +239,13 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1275,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1505,16 +1530,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,25 +1624,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,106 +1683,31 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1956,7 +2002,7 @@
   <dimension ref="B2:FA113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AQ33" sqref="AQ33"/>
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,23 +2019,23 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
+      <c r="E3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
       <c r="R3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2109,23 +2155,23 @@
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
+      <c r="E7" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
       <c r="R7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2270,35 +2316,35 @@
       <c r="S11" s="61"/>
     </row>
     <row r="12" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="143" t="s">
+      <c r="M12" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="2:152" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143" t="s">
+      <c r="E13" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
     </row>
     <row r="14" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="9">
@@ -2344,143 +2390,143 @@
         <v>13</v>
       </c>
       <c r="R14" s="12"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="138"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="144"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="138"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="144"/>
       <c r="AJ14" s="12"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="170"/>
-      <c r="AM14" s="170"/>
-      <c r="AN14" s="170"/>
-      <c r="AO14" s="170"/>
-      <c r="AP14" s="170"/>
-      <c r="AQ14" s="170"/>
-      <c r="AR14" s="171"/>
+      <c r="AK14" s="173"/>
+      <c r="AL14" s="173"/>
+      <c r="AM14" s="173"/>
+      <c r="AN14" s="173"/>
+      <c r="AO14" s="173"/>
+      <c r="AP14" s="173"/>
+      <c r="AQ14" s="173"/>
+      <c r="AR14" s="174"/>
       <c r="AS14" s="12"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="138"/>
+      <c r="AT14" s="143"/>
+      <c r="AU14" s="143"/>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
+      <c r="AX14" s="143"/>
+      <c r="AY14" s="143"/>
+      <c r="AZ14" s="143"/>
+      <c r="BA14" s="144"/>
       <c r="BB14" s="12"/>
-      <c r="BC14" s="136"/>
-      <c r="BD14" s="136"/>
-      <c r="BE14" s="136"/>
-      <c r="BF14" s="136"/>
-      <c r="BG14" s="136"/>
-      <c r="BH14" s="136"/>
-      <c r="BI14" s="136"/>
-      <c r="BJ14" s="138"/>
+      <c r="BC14" s="143"/>
+      <c r="BD14" s="143"/>
+      <c r="BE14" s="143"/>
+      <c r="BF14" s="143"/>
+      <c r="BG14" s="143"/>
+      <c r="BH14" s="143"/>
+      <c r="BI14" s="143"/>
+      <c r="BJ14" s="144"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="136"/>
-      <c r="BM14" s="136"/>
-      <c r="BN14" s="136"/>
-      <c r="BO14" s="136"/>
-      <c r="BP14" s="136"/>
-      <c r="BQ14" s="136"/>
-      <c r="BR14" s="136"/>
-      <c r="BS14" s="138"/>
+      <c r="BL14" s="143"/>
+      <c r="BM14" s="143"/>
+      <c r="BN14" s="143"/>
+      <c r="BO14" s="143"/>
+      <c r="BP14" s="143"/>
+      <c r="BQ14" s="143"/>
+      <c r="BR14" s="143"/>
+      <c r="BS14" s="144"/>
       <c r="BT14" s="12"/>
-      <c r="BU14" s="136"/>
-      <c r="BV14" s="136"/>
-      <c r="BW14" s="136"/>
-      <c r="BX14" s="136"/>
-      <c r="BY14" s="136"/>
-      <c r="BZ14" s="136"/>
-      <c r="CA14" s="136"/>
-      <c r="CB14" s="138"/>
+      <c r="BU14" s="143"/>
+      <c r="BV14" s="143"/>
+      <c r="BW14" s="143"/>
+      <c r="BX14" s="143"/>
+      <c r="BY14" s="143"/>
+      <c r="BZ14" s="143"/>
+      <c r="CA14" s="143"/>
+      <c r="CB14" s="144"/>
       <c r="CC14" s="12"/>
-      <c r="CD14" s="170"/>
-      <c r="CE14" s="170"/>
-      <c r="CF14" s="170"/>
-      <c r="CG14" s="170"/>
-      <c r="CH14" s="170"/>
-      <c r="CI14" s="170"/>
-      <c r="CJ14" s="170"/>
-      <c r="CK14" s="171"/>
+      <c r="CD14" s="173"/>
+      <c r="CE14" s="173"/>
+      <c r="CF14" s="173"/>
+      <c r="CG14" s="173"/>
+      <c r="CH14" s="173"/>
+      <c r="CI14" s="173"/>
+      <c r="CJ14" s="173"/>
+      <c r="CK14" s="174"/>
       <c r="CL14" s="12"/>
-      <c r="CM14" s="136"/>
-      <c r="CN14" s="136"/>
-      <c r="CO14" s="136"/>
-      <c r="CP14" s="136"/>
-      <c r="CQ14" s="136"/>
-      <c r="CR14" s="136"/>
-      <c r="CS14" s="136"/>
-      <c r="CT14" s="138"/>
+      <c r="CM14" s="143"/>
+      <c r="CN14" s="143"/>
+      <c r="CO14" s="143"/>
+      <c r="CP14" s="143"/>
+      <c r="CQ14" s="143"/>
+      <c r="CR14" s="143"/>
+      <c r="CS14" s="143"/>
+      <c r="CT14" s="144"/>
       <c r="CU14" s="12"/>
-      <c r="CV14" s="136"/>
-      <c r="CW14" s="136"/>
-      <c r="CX14" s="136"/>
-      <c r="CY14" s="136"/>
-      <c r="CZ14" s="136"/>
-      <c r="DA14" s="136"/>
-      <c r="DB14" s="136"/>
-      <c r="DC14" s="138"/>
+      <c r="CV14" s="143"/>
+      <c r="CW14" s="143"/>
+      <c r="CX14" s="143"/>
+      <c r="CY14" s="143"/>
+      <c r="CZ14" s="143"/>
+      <c r="DA14" s="143"/>
+      <c r="DB14" s="143"/>
+      <c r="DC14" s="144"/>
       <c r="DD14" s="12"/>
-      <c r="DE14" s="135"/>
-      <c r="DF14" s="136"/>
-      <c r="DG14" s="136"/>
-      <c r="DH14" s="136"/>
-      <c r="DI14" s="136"/>
-      <c r="DJ14" s="136"/>
-      <c r="DK14" s="136"/>
-      <c r="DL14" s="137"/>
+      <c r="DE14" s="188"/>
+      <c r="DF14" s="143"/>
+      <c r="DG14" s="143"/>
+      <c r="DH14" s="143"/>
+      <c r="DI14" s="143"/>
+      <c r="DJ14" s="143"/>
+      <c r="DK14" s="143"/>
+      <c r="DL14" s="189"/>
       <c r="DM14" s="12"/>
-      <c r="DN14" s="135"/>
-      <c r="DO14" s="136"/>
-      <c r="DP14" s="136"/>
-      <c r="DQ14" s="136"/>
-      <c r="DR14" s="136"/>
-      <c r="DS14" s="136"/>
-      <c r="DT14" s="136"/>
-      <c r="DU14" s="137"/>
+      <c r="DN14" s="188"/>
+      <c r="DO14" s="143"/>
+      <c r="DP14" s="143"/>
+      <c r="DQ14" s="143"/>
+      <c r="DR14" s="143"/>
+      <c r="DS14" s="143"/>
+      <c r="DT14" s="143"/>
+      <c r="DU14" s="189"/>
       <c r="DV14" s="12"/>
-      <c r="DW14" s="136"/>
-      <c r="DX14" s="136"/>
-      <c r="DY14" s="136"/>
-      <c r="DZ14" s="136"/>
-      <c r="EA14" s="136"/>
-      <c r="EB14" s="136"/>
-      <c r="EC14" s="136"/>
-      <c r="ED14" s="138"/>
+      <c r="DW14" s="143"/>
+      <c r="DX14" s="143"/>
+      <c r="DY14" s="143"/>
+      <c r="DZ14" s="143"/>
+      <c r="EA14" s="143"/>
+      <c r="EB14" s="143"/>
+      <c r="EC14" s="143"/>
+      <c r="ED14" s="144"/>
       <c r="EE14" s="12"/>
-      <c r="EF14" s="136"/>
-      <c r="EG14" s="136"/>
-      <c r="EH14" s="136"/>
-      <c r="EI14" s="136"/>
-      <c r="EJ14" s="136"/>
-      <c r="EK14" s="136"/>
-      <c r="EL14" s="136"/>
-      <c r="EM14" s="138"/>
+      <c r="EF14" s="143"/>
+      <c r="EG14" s="143"/>
+      <c r="EH14" s="143"/>
+      <c r="EI14" s="143"/>
+      <c r="EJ14" s="143"/>
+      <c r="EK14" s="143"/>
+      <c r="EL14" s="143"/>
+      <c r="EM14" s="144"/>
       <c r="EN14" s="12"/>
-      <c r="EO14" s="136"/>
-      <c r="EP14" s="136"/>
-      <c r="EQ14" s="136"/>
-      <c r="ER14" s="136"/>
-      <c r="ES14" s="136"/>
-      <c r="ET14" s="136"/>
-      <c r="EU14" s="136"/>
-      <c r="EV14" s="138"/>
+      <c r="EO14" s="143"/>
+      <c r="EP14" s="143"/>
+      <c r="EQ14" s="143"/>
+      <c r="ER14" s="143"/>
+      <c r="ES14" s="143"/>
+      <c r="ET14" s="143"/>
+      <c r="EU14" s="143"/>
+      <c r="EV14" s="144"/>
     </row>
     <row r="15" spans="2:152" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="136" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="73"/>
@@ -2933,7 +2979,7 @@
       </c>
     </row>
     <row r="16" spans="2:152" x14ac:dyDescent="0.25">
-      <c r="B16" s="178"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="75"/>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -3156,27 +3202,27 @@
       </c>
     </row>
     <row r="17" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B17" s="178"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="75"/>
       <c r="D17" s="61"/>
     </row>
     <row r="18" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B18" s="178"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="75"/>
       <c r="D18" s="61"/>
     </row>
     <row r="19" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B19" s="178"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="75"/>
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B20" s="178"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="75"/>
       <c r="D20" s="61"/>
     </row>
     <row r="21" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="179"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="77"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -3236,35 +3282,35 @@
       <c r="S23" s="61"/>
     </row>
     <row r="24" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="143" t="s">
+      <c r="M24" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
     </row>
     <row r="25" spans="2:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143" t="s">
+      <c r="E25" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
     </row>
     <row r="26" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="9">
@@ -3310,71 +3356,71 @@
         <v>13</v>
       </c>
       <c r="R26" s="12"/>
-      <c r="S26" s="172" t="s">
+      <c r="S26" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="173"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="175"/>
+      <c r="Y26" s="175"/>
+      <c r="Z26" s="176"/>
       <c r="AA26" s="12"/>
-      <c r="AB26" s="174" t="s">
+      <c r="AB26" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="174"/>
-      <c r="AI26" s="175"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="156"/>
+      <c r="AH26" s="156"/>
+      <c r="AI26" s="157"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="146" t="s">
+      <c r="AK26" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="146"/>
-      <c r="AO26" s="146"/>
-      <c r="AP26" s="146"/>
-      <c r="AQ26" s="146"/>
-      <c r="AR26" s="147"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="139"/>
+      <c r="AN26" s="139"/>
+      <c r="AO26" s="139"/>
+      <c r="AP26" s="139"/>
+      <c r="AQ26" s="139"/>
+      <c r="AR26" s="140"/>
       <c r="AS26" s="12"/>
-      <c r="AT26" s="186" t="s">
+      <c r="AT26" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="AU26" s="186"/>
-      <c r="AV26" s="186"/>
-      <c r="AW26" s="186"/>
-      <c r="AX26" s="186"/>
-      <c r="AY26" s="186"/>
-      <c r="AZ26" s="186"/>
-      <c r="BA26" s="187"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="141"/>
+      <c r="AW26" s="141"/>
+      <c r="AX26" s="141"/>
+      <c r="AY26" s="141"/>
+      <c r="AZ26" s="141"/>
+      <c r="BA26" s="142"/>
       <c r="BB26" s="12"/>
-      <c r="BC26" s="136"/>
-      <c r="BD26" s="136"/>
-      <c r="BE26" s="136"/>
-      <c r="BF26" s="136"/>
-      <c r="BG26" s="136"/>
-      <c r="BH26" s="136"/>
-      <c r="BI26" s="136"/>
-      <c r="BJ26" s="138"/>
+      <c r="BC26" s="143"/>
+      <c r="BD26" s="143"/>
+      <c r="BE26" s="143"/>
+      <c r="BF26" s="143"/>
+      <c r="BG26" s="143"/>
+      <c r="BH26" s="143"/>
+      <c r="BI26" s="143"/>
+      <c r="BJ26" s="144"/>
       <c r="BK26" s="12"/>
-      <c r="BL26" s="163"/>
-      <c r="BM26" s="164"/>
-      <c r="BN26" s="164"/>
-      <c r="BO26" s="189"/>
-      <c r="BP26" s="163"/>
-      <c r="BQ26" s="164"/>
-      <c r="BR26" s="164"/>
-      <c r="BS26" s="189"/>
+      <c r="BL26" s="145"/>
+      <c r="BM26" s="146"/>
+      <c r="BN26" s="146"/>
+      <c r="BO26" s="147"/>
+      <c r="BP26" s="145"/>
+      <c r="BQ26" s="146"/>
+      <c r="BR26" s="146"/>
+      <c r="BS26" s="147"/>
       <c r="BT26" s="12"/>
     </row>
     <row r="27" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="136" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="73"/>
@@ -3587,7 +3633,7 @@
       </c>
     </row>
     <row r="28" spans="2:72" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="178"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="75"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
@@ -3658,7 +3704,7 @@
       </c>
       <c r="AZ28" s="89"/>
       <c r="BA28" s="89"/>
-      <c r="BB28" s="188">
+      <c r="BB28" s="135">
         <v>1</v>
       </c>
       <c r="BG28" s="18">
@@ -3673,7 +3719,7 @@
       <c r="BJ28" s="18">
         <v>1</v>
       </c>
-      <c r="BK28" s="188">
+      <c r="BK28" s="135">
         <v>1</v>
       </c>
       <c r="BL28" s="89"/>
@@ -3693,26 +3739,26 @@
       <c r="BT28" s="89"/>
     </row>
     <row r="29" spans="2:72" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="178"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="75"/>
       <c r="D29" s="61"/>
     </row>
     <row r="30" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B30" s="178"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="75"/>
       <c r="D30" s="61"/>
     </row>
     <row r="31" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B31" s="178"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="75"/>
       <c r="D31" s="61"/>
     </row>
     <row r="32" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B32" s="178"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="179"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="77"/>
     </row>
     <row r="34" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3728,142 +3774,154 @@
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143" t="s">
+      <c r="E37" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="2:100" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143" t="s">
+      <c r="E38" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="144" t="s">
+      <c r="S38" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="145"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="162"/>
+      <c r="W38" s="162"/>
+      <c r="X38" s="162"/>
+      <c r="Y38" s="162"/>
+      <c r="Z38" s="163"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="136"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="138"/>
+      <c r="AB38" s="195" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC38" s="196"/>
+      <c r="AD38" s="196"/>
+      <c r="AE38" s="194" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF38" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG38" s="192" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH38" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="190" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ38" s="12"/>
-      <c r="AK38" s="146" t="s">
+      <c r="AK38" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AL38" s="146"/>
-      <c r="AM38" s="146"/>
-      <c r="AN38" s="146"/>
-      <c r="AO38" s="146"/>
-      <c r="AP38" s="146"/>
-      <c r="AQ38" s="146"/>
-      <c r="AR38" s="147"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="139"/>
+      <c r="AN38" s="139"/>
+      <c r="AO38" s="139"/>
+      <c r="AP38" s="139"/>
+      <c r="AQ38" s="139"/>
+      <c r="AR38" s="140"/>
       <c r="AS38" s="12"/>
-      <c r="AT38" s="181" t="s">
+      <c r="AT38" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="AU38" s="181"/>
-      <c r="AV38" s="181"/>
-      <c r="AW38" s="181"/>
-      <c r="AX38" s="181"/>
-      <c r="AY38" s="181"/>
-      <c r="AZ38" s="181"/>
-      <c r="BA38" s="182"/>
+      <c r="AU38" s="148"/>
+      <c r="AV38" s="148"/>
+      <c r="AW38" s="148"/>
+      <c r="AX38" s="148"/>
+      <c r="AY38" s="148"/>
+      <c r="AZ38" s="148"/>
+      <c r="BA38" s="149"/>
       <c r="BB38" s="12"/>
-      <c r="BC38" s="154" t="s">
+      <c r="BC38" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="BD38" s="154"/>
-      <c r="BE38" s="154"/>
-      <c r="BF38" s="154"/>
-      <c r="BG38" s="154"/>
-      <c r="BH38" s="154"/>
-      <c r="BI38" s="154"/>
-      <c r="BJ38" s="155"/>
+      <c r="BD38" s="168"/>
+      <c r="BE38" s="168"/>
+      <c r="BF38" s="168"/>
+      <c r="BG38" s="168"/>
+      <c r="BH38" s="168"/>
+      <c r="BI38" s="168"/>
+      <c r="BJ38" s="169"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="144" t="s">
+      <c r="BL38" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="BM38" s="144"/>
-      <c r="BN38" s="144"/>
-      <c r="BO38" s="144"/>
-      <c r="BP38" s="144"/>
-      <c r="BQ38" s="144"/>
-      <c r="BR38" s="144"/>
-      <c r="BS38" s="145"/>
+      <c r="BM38" s="162"/>
+      <c r="BN38" s="162"/>
+      <c r="BO38" s="162"/>
+      <c r="BP38" s="162"/>
+      <c r="BQ38" s="162"/>
+      <c r="BR38" s="162"/>
+      <c r="BS38" s="163"/>
       <c r="BT38" s="12"/>
-      <c r="BU38" s="139" t="s">
+      <c r="BU38" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="BV38" s="139"/>
-      <c r="BW38" s="139"/>
-      <c r="BX38" s="139"/>
-      <c r="BY38" s="139"/>
-      <c r="BZ38" s="139"/>
-      <c r="CA38" s="139"/>
-      <c r="CB38" s="140"/>
+      <c r="BV38" s="165"/>
+      <c r="BW38" s="165"/>
+      <c r="BX38" s="165"/>
+      <c r="BY38" s="165"/>
+      <c r="BZ38" s="165"/>
+      <c r="CA38" s="165"/>
+      <c r="CB38" s="166"/>
       <c r="CC38" s="12"/>
-      <c r="CD38" s="150" t="s">
+      <c r="CD38" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="CE38" s="150"/>
-      <c r="CF38" s="150"/>
-      <c r="CG38" s="150"/>
-      <c r="CH38" s="150"/>
-      <c r="CI38" s="150"/>
-      <c r="CJ38" s="150"/>
-      <c r="CK38" s="151"/>
+      <c r="CE38" s="184"/>
+      <c r="CF38" s="184"/>
+      <c r="CG38" s="184"/>
+      <c r="CH38" s="184"/>
+      <c r="CI38" s="184"/>
+      <c r="CJ38" s="184"/>
+      <c r="CK38" s="185"/>
       <c r="CL38" s="12"/>
-      <c r="CM38" s="152" t="s">
+      <c r="CM38" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="CN38" s="152"/>
-      <c r="CO38" s="152"/>
-      <c r="CP38" s="152"/>
-      <c r="CQ38" s="152"/>
-      <c r="CR38" s="152"/>
-      <c r="CS38" s="152"/>
-      <c r="CT38" s="153"/>
+      <c r="CN38" s="186"/>
+      <c r="CO38" s="186"/>
+      <c r="CP38" s="186"/>
+      <c r="CQ38" s="186"/>
+      <c r="CR38" s="186"/>
+      <c r="CS38" s="186"/>
+      <c r="CT38" s="187"/>
       <c r="CU38" s="12"/>
     </row>
     <row r="39" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4157,7 +4215,7 @@
       </c>
     </row>
     <row r="40" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="136" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="73"/>
@@ -4348,7 +4406,7 @@
       <c r="CV40" s="82"/>
     </row>
     <row r="41" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B41" s="178"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="75"/>
       <c r="D41" s="76"/>
       <c r="E41" s="68"/>
@@ -4529,7 +4587,7 @@
       <c r="CV41" s="84"/>
     </row>
     <row r="42" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B42" s="178"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="75"/>
       <c r="D42" s="76"/>
       <c r="E42" s="68"/>
@@ -4662,7 +4720,7 @@
       <c r="CV42" s="84"/>
     </row>
     <row r="43" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B43" s="178"/>
+      <c r="B43" s="137"/>
       <c r="C43" s="75"/>
       <c r="D43" s="76"/>
       <c r="E43" s="68"/>
@@ -4793,7 +4851,7 @@
       <c r="CV43" s="84"/>
     </row>
     <row r="44" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B44" s="178"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="75"/>
       <c r="D44" s="76"/>
       <c r="E44" s="68"/>
@@ -4918,7 +4976,7 @@
       <c r="CV44" s="84"/>
     </row>
     <row r="45" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B45" s="178"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
       <c r="E45" s="68"/>
@@ -5043,7 +5101,7 @@
       <c r="CV45" s="84"/>
     </row>
     <row r="46" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="179"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="77"/>
       <c r="D46" s="78"/>
       <c r="E46" s="70"/>
@@ -5274,114 +5332,114 @@
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="143"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="143" t="s">
+      <c r="E48" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="143"/>
-      <c r="O48" s="143"/>
-      <c r="P48" s="143"/>
-      <c r="Q48" s="143"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="144" t="s">
+      <c r="S48" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="T48" s="144"/>
-      <c r="U48" s="144"/>
-      <c r="V48" s="144"/>
-      <c r="W48" s="144"/>
-      <c r="X48" s="144"/>
-      <c r="Y48" s="144"/>
-      <c r="Z48" s="145"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="163"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="136"/>
-      <c r="AF48" s="136"/>
-      <c r="AG48" s="136"/>
-      <c r="AH48" s="136"/>
-      <c r="AI48" s="138"/>
+      <c r="AB48" s="143"/>
+      <c r="AC48" s="143"/>
+      <c r="AD48" s="143"/>
+      <c r="AE48" s="143"/>
+      <c r="AF48" s="143"/>
+      <c r="AG48" s="143"/>
+      <c r="AH48" s="143"/>
+      <c r="AI48" s="144"/>
       <c r="AJ48" s="12"/>
-      <c r="AK48" s="146" t="s">
+      <c r="AK48" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AL48" s="146"/>
-      <c r="AM48" s="146"/>
-      <c r="AN48" s="146"/>
-      <c r="AO48" s="146"/>
-      <c r="AP48" s="146"/>
-      <c r="AQ48" s="146"/>
-      <c r="AR48" s="147"/>
+      <c r="AL48" s="139"/>
+      <c r="AM48" s="139"/>
+      <c r="AN48" s="139"/>
+      <c r="AO48" s="139"/>
+      <c r="AP48" s="139"/>
+      <c r="AQ48" s="139"/>
+      <c r="AR48" s="140"/>
       <c r="AS48" s="12"/>
-      <c r="AT48" s="148" t="s">
+      <c r="AT48" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AU48" s="148"/>
-      <c r="AV48" s="148"/>
-      <c r="AW48" s="148"/>
-      <c r="AX48" s="148"/>
-      <c r="AY48" s="148"/>
-      <c r="AZ48" s="148"/>
-      <c r="BA48" s="149"/>
+      <c r="AU48" s="182"/>
+      <c r="AV48" s="182"/>
+      <c r="AW48" s="182"/>
+      <c r="AX48" s="182"/>
+      <c r="AY48" s="182"/>
+      <c r="AZ48" s="182"/>
+      <c r="BA48" s="183"/>
       <c r="BB48" s="12"/>
-      <c r="BC48" s="136" t="s">
+      <c r="BC48" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="BD48" s="136"/>
-      <c r="BE48" s="136"/>
-      <c r="BF48" s="136"/>
-      <c r="BG48" s="136"/>
-      <c r="BH48" s="136"/>
-      <c r="BI48" s="136"/>
-      <c r="BJ48" s="138"/>
+      <c r="BD48" s="143"/>
+      <c r="BE48" s="143"/>
+      <c r="BF48" s="143"/>
+      <c r="BG48" s="143"/>
+      <c r="BH48" s="143"/>
+      <c r="BI48" s="143"/>
+      <c r="BJ48" s="144"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="139" t="s">
+      <c r="BL48" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="BM48" s="139"/>
-      <c r="BN48" s="139"/>
-      <c r="BO48" s="139"/>
-      <c r="BP48" s="139"/>
-      <c r="BQ48" s="139"/>
-      <c r="BR48" s="139"/>
-      <c r="BS48" s="140"/>
+      <c r="BM48" s="165"/>
+      <c r="BN48" s="165"/>
+      <c r="BO48" s="165"/>
+      <c r="BP48" s="165"/>
+      <c r="BQ48" s="165"/>
+      <c r="BR48" s="165"/>
+      <c r="BS48" s="166"/>
       <c r="BT48" s="12"/>
-      <c r="BU48" s="136"/>
-      <c r="BV48" s="136"/>
-      <c r="BW48" s="136"/>
-      <c r="BX48" s="136"/>
-      <c r="BY48" s="136"/>
-      <c r="BZ48" s="136"/>
-      <c r="CA48" s="136"/>
-      <c r="CB48" s="138"/>
+      <c r="BU48" s="143"/>
+      <c r="BV48" s="143"/>
+      <c r="BW48" s="143"/>
+      <c r="BX48" s="143"/>
+      <c r="BY48" s="143"/>
+      <c r="BZ48" s="143"/>
+      <c r="CA48" s="143"/>
+      <c r="CB48" s="144"/>
       <c r="CC48" s="12"/>
-      <c r="CD48" s="141"/>
-      <c r="CE48" s="141"/>
-      <c r="CF48" s="141"/>
-      <c r="CG48" s="141"/>
-      <c r="CH48" s="141"/>
-      <c r="CI48" s="141"/>
-      <c r="CJ48" s="141"/>
-      <c r="CK48" s="142"/>
+      <c r="CD48" s="180"/>
+      <c r="CE48" s="180"/>
+      <c r="CF48" s="180"/>
+      <c r="CG48" s="180"/>
+      <c r="CH48" s="180"/>
+      <c r="CI48" s="180"/>
+      <c r="CJ48" s="180"/>
+      <c r="CK48" s="181"/>
       <c r="CL48" s="12"/>
-      <c r="CM48" s="136"/>
-      <c r="CN48" s="136"/>
-      <c r="CO48" s="136"/>
-      <c r="CP48" s="136"/>
-      <c r="CQ48" s="136"/>
-      <c r="CR48" s="136"/>
-      <c r="CS48" s="136"/>
-      <c r="CT48" s="138"/>
+      <c r="CM48" s="143"/>
+      <c r="CN48" s="143"/>
+      <c r="CO48" s="143"/>
+      <c r="CP48" s="143"/>
+      <c r="CQ48" s="143"/>
+      <c r="CR48" s="143"/>
+      <c r="CS48" s="143"/>
+      <c r="CT48" s="144"/>
       <c r="CU48" s="12"/>
       <c r="CV48" s="61"/>
     </row>
@@ -5679,7 +5737,7 @@
       <c r="CV49" s="61"/>
     </row>
     <row r="50" spans="2:100" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="152" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="93" t="s">
@@ -5975,7 +6033,7 @@
       </c>
     </row>
     <row r="51" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B51" s="184"/>
+      <c r="B51" s="153"/>
       <c r="C51" s="89" t="s">
         <v>6</v>
       </c>
@@ -6269,7 +6327,7 @@
       </c>
     </row>
     <row r="52" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B52" s="184"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="89" t="s">
         <v>7</v>
       </c>
@@ -6563,7 +6621,7 @@
       </c>
     </row>
     <row r="53" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B53" s="184"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="89" t="s">
         <v>9</v>
       </c>
@@ -6855,7 +6913,7 @@
       </c>
     </row>
     <row r="54" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B54" s="184"/>
+      <c r="B54" s="153"/>
       <c r="C54" s="89" t="s">
         <v>10</v>
       </c>
@@ -7149,7 +7207,7 @@
       </c>
     </row>
     <row r="55" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B55" s="184"/>
+      <c r="B55" s="153"/>
       <c r="C55" s="89" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7501,7 @@
       </c>
     </row>
     <row r="56" spans="2:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="184"/>
+      <c r="B56" s="153"/>
       <c r="C56" s="89" t="s">
         <v>12</v>
       </c>
@@ -7737,7 +7795,7 @@
       </c>
     </row>
     <row r="57" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B57" s="184"/>
+      <c r="B57" s="153"/>
       <c r="C57" s="89" t="s">
         <v>15</v>
       </c>
@@ -8031,7 +8089,7 @@
       </c>
     </row>
     <row r="58" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B58" s="184"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="89" t="s">
         <v>17</v>
       </c>
@@ -8325,7 +8383,7 @@
       </c>
     </row>
     <row r="59" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B59" s="184"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="89" t="s">
         <v>16</v>
       </c>
@@ -8619,7 +8677,7 @@
       </c>
     </row>
     <row r="60" spans="2:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="185"/>
+      <c r="B60" s="154"/>
       <c r="C60" s="102" t="s">
         <v>18</v>
       </c>
@@ -9013,7 +9071,7 @@
       <c r="CU61" s="26"/>
     </row>
     <row r="62" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="170" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
@@ -9309,7 +9367,7 @@
       </c>
     </row>
     <row r="63" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B63" s="157"/>
+      <c r="B63" s="171"/>
       <c r="C63" t="s">
         <v>21</v>
       </c>
@@ -9603,7 +9661,7 @@
       </c>
     </row>
     <row r="64" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B64" s="157"/>
+      <c r="B64" s="171"/>
       <c r="C64" t="s">
         <v>22</v>
       </c>
@@ -9897,7 +9955,7 @@
       </c>
     </row>
     <row r="65" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B65" s="157"/>
+      <c r="B65" s="171"/>
       <c r="C65" t="s">
         <v>23</v>
       </c>
@@ -10191,7 +10249,7 @@
       </c>
     </row>
     <row r="66" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="158"/>
+      <c r="B66" s="172"/>
       <c r="C66" t="s">
         <v>24</v>
       </c>
@@ -10585,7 +10643,7 @@
       <c r="CU67" s="25"/>
     </row>
     <row r="68" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="170" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
@@ -10827,7 +10885,7 @@
       </c>
     </row>
     <row r="69" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B69" s="157"/>
+      <c r="B69" s="171"/>
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -11067,7 +11125,7 @@
       </c>
     </row>
     <row r="70" spans="2:157" x14ac:dyDescent="0.25">
-      <c r="B70" s="157"/>
+      <c r="B70" s="171"/>
       <c r="C70" t="s">
         <v>27</v>
       </c>
@@ -11307,7 +11365,7 @@
       </c>
     </row>
     <row r="71" spans="2:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="158"/>
+      <c r="B71" s="172"/>
       <c r="C71" t="s">
         <v>28</v>
       </c>
@@ -11552,70 +11610,70 @@
       <c r="D72" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="159" t="s">
+      <c r="E72" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="160" t="s">
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="165"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="165"/>
+      <c r="L72" s="166"/>
+      <c r="M72" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="155"/>
-      <c r="R72" s="167" t="s">
+      <c r="N72" s="168"/>
+      <c r="O72" s="168"/>
+      <c r="P72" s="168"/>
+      <c r="Q72" s="169"/>
+      <c r="R72" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S72" s="168"/>
-      <c r="T72" s="168"/>
-      <c r="U72" s="168"/>
-      <c r="V72" s="168"/>
-      <c r="W72" s="168"/>
-      <c r="X72" s="168"/>
-      <c r="Y72" s="168"/>
-      <c r="Z72" s="168"/>
-      <c r="AA72" s="168"/>
-      <c r="AB72" s="168"/>
-      <c r="AC72" s="168"/>
-      <c r="AD72" s="168"/>
-      <c r="AE72" s="168"/>
-      <c r="AF72" s="168"/>
-      <c r="AG72" s="168"/>
-      <c r="AH72" s="168"/>
-      <c r="AI72" s="169"/>
-      <c r="AJ72" s="176" t="s">
+      <c r="S72" s="159"/>
+      <c r="T72" s="159"/>
+      <c r="U72" s="159"/>
+      <c r="V72" s="159"/>
+      <c r="W72" s="159"/>
+      <c r="X72" s="159"/>
+      <c r="Y72" s="159"/>
+      <c r="Z72" s="159"/>
+      <c r="AA72" s="159"/>
+      <c r="AB72" s="159"/>
+      <c r="AC72" s="159"/>
+      <c r="AD72" s="159"/>
+      <c r="AE72" s="159"/>
+      <c r="AF72" s="159"/>
+      <c r="AG72" s="159"/>
+      <c r="AH72" s="159"/>
+      <c r="AI72" s="160"/>
+      <c r="AJ72" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK72" s="144"/>
-      <c r="AL72" s="144"/>
-      <c r="AM72" s="144"/>
-      <c r="AN72" s="144"/>
-      <c r="AO72" s="144"/>
-      <c r="AP72" s="144"/>
-      <c r="AQ72" s="144"/>
-      <c r="AR72" s="144"/>
-      <c r="AS72" s="144"/>
-      <c r="AT72" s="144"/>
-      <c r="AU72" s="144"/>
-      <c r="AV72" s="144"/>
-      <c r="AW72" s="145"/>
+      <c r="AK72" s="162"/>
+      <c r="AL72" s="162"/>
+      <c r="AM72" s="162"/>
+      <c r="AN72" s="162"/>
+      <c r="AO72" s="162"/>
+      <c r="AP72" s="162"/>
+      <c r="AQ72" s="162"/>
+      <c r="AR72" s="162"/>
+      <c r="AS72" s="162"/>
+      <c r="AT72" s="162"/>
+      <c r="AU72" s="162"/>
+      <c r="AV72" s="162"/>
+      <c r="AW72" s="163"/>
       <c r="AX72" s="18"/>
-      <c r="AY72" s="180" t="s">
+      <c r="AY72" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="AZ72" s="174"/>
-      <c r="BA72" s="174"/>
-      <c r="BB72" s="174"/>
-      <c r="BC72" s="174"/>
-      <c r="BD72" s="174"/>
-      <c r="BE72" s="174"/>
-      <c r="BF72" s="175"/>
+      <c r="AZ72" s="156"/>
+      <c r="BA72" s="156"/>
+      <c r="BB72" s="156"/>
+      <c r="BC72" s="156"/>
+      <c r="BD72" s="156"/>
+      <c r="BE72" s="156"/>
+      <c r="BF72" s="157"/>
       <c r="BG72" s="17"/>
       <c r="BH72" s="17"/>
       <c r="BI72" s="17"/>
@@ -12614,70 +12672,70 @@
       <c r="D76" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="159" t="s">
+      <c r="E76" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="139"/>
-      <c r="G76" s="139"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="160" t="s">
+      <c r="F76" s="165"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="165"/>
+      <c r="L76" s="166"/>
+      <c r="M76" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N76" s="154"/>
-      <c r="O76" s="154"/>
-      <c r="P76" s="154"/>
-      <c r="Q76" s="155"/>
-      <c r="R76" s="167" t="s">
+      <c r="N76" s="168"/>
+      <c r="O76" s="168"/>
+      <c r="P76" s="168"/>
+      <c r="Q76" s="169"/>
+      <c r="R76" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S76" s="168"/>
-      <c r="T76" s="168"/>
-      <c r="U76" s="168"/>
-      <c r="V76" s="168"/>
-      <c r="W76" s="168"/>
-      <c r="X76" s="168"/>
-      <c r="Y76" s="168"/>
-      <c r="Z76" s="168"/>
-      <c r="AA76" s="168"/>
-      <c r="AB76" s="168"/>
-      <c r="AC76" s="168"/>
-      <c r="AD76" s="168"/>
-      <c r="AE76" s="168"/>
-      <c r="AF76" s="168"/>
-      <c r="AG76" s="168"/>
-      <c r="AH76" s="168"/>
-      <c r="AI76" s="169"/>
-      <c r="AJ76" s="176" t="s">
+      <c r="S76" s="159"/>
+      <c r="T76" s="159"/>
+      <c r="U76" s="159"/>
+      <c r="V76" s="159"/>
+      <c r="W76" s="159"/>
+      <c r="X76" s="159"/>
+      <c r="Y76" s="159"/>
+      <c r="Z76" s="159"/>
+      <c r="AA76" s="159"/>
+      <c r="AB76" s="159"/>
+      <c r="AC76" s="159"/>
+      <c r="AD76" s="159"/>
+      <c r="AE76" s="159"/>
+      <c r="AF76" s="159"/>
+      <c r="AG76" s="159"/>
+      <c r="AH76" s="159"/>
+      <c r="AI76" s="160"/>
+      <c r="AJ76" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK76" s="144"/>
-      <c r="AL76" s="144"/>
-      <c r="AM76" s="144"/>
-      <c r="AN76" s="144"/>
-      <c r="AO76" s="144"/>
-      <c r="AP76" s="144"/>
-      <c r="AQ76" s="144"/>
-      <c r="AR76" s="144"/>
-      <c r="AS76" s="144"/>
-      <c r="AT76" s="144"/>
-      <c r="AU76" s="144"/>
-      <c r="AV76" s="144"/>
-      <c r="AW76" s="145"/>
+      <c r="AK76" s="162"/>
+      <c r="AL76" s="162"/>
+      <c r="AM76" s="162"/>
+      <c r="AN76" s="162"/>
+      <c r="AO76" s="162"/>
+      <c r="AP76" s="162"/>
+      <c r="AQ76" s="162"/>
+      <c r="AR76" s="162"/>
+      <c r="AS76" s="162"/>
+      <c r="AT76" s="162"/>
+      <c r="AU76" s="162"/>
+      <c r="AV76" s="162"/>
+      <c r="AW76" s="163"/>
       <c r="AX76" s="18"/>
-      <c r="AY76" s="180" t="s">
+      <c r="AY76" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="AZ76" s="174"/>
-      <c r="BA76" s="174"/>
-      <c r="BB76" s="174"/>
-      <c r="BC76" s="174"/>
-      <c r="BD76" s="174"/>
-      <c r="BE76" s="174"/>
-      <c r="BF76" s="175"/>
+      <c r="AZ76" s="156"/>
+      <c r="BA76" s="156"/>
+      <c r="BB76" s="156"/>
+      <c r="BC76" s="156"/>
+      <c r="BD76" s="156"/>
+      <c r="BE76" s="156"/>
+      <c r="BF76" s="157"/>
       <c r="BG76" s="15"/>
       <c r="BK76" s="16"/>
       <c r="BL76" s="23"/>
@@ -13677,70 +13735,70 @@
       <c r="D80" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="159" t="s">
+      <c r="E80" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="139"/>
-      <c r="G80" s="139"/>
-      <c r="H80" s="139"/>
-      <c r="I80" s="139"/>
-      <c r="J80" s="139"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="160" t="s">
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="154"/>
-      <c r="O80" s="154"/>
-      <c r="P80" s="154"/>
-      <c r="Q80" s="155"/>
-      <c r="R80" s="167" t="s">
+      <c r="N80" s="168"/>
+      <c r="O80" s="168"/>
+      <c r="P80" s="168"/>
+      <c r="Q80" s="169"/>
+      <c r="R80" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S80" s="168"/>
-      <c r="T80" s="168"/>
-      <c r="U80" s="168"/>
-      <c r="V80" s="168"/>
-      <c r="W80" s="168"/>
-      <c r="X80" s="168"/>
-      <c r="Y80" s="168"/>
-      <c r="Z80" s="168"/>
-      <c r="AA80" s="168"/>
-      <c r="AB80" s="168"/>
-      <c r="AC80" s="168"/>
-      <c r="AD80" s="168"/>
-      <c r="AE80" s="168"/>
-      <c r="AF80" s="168"/>
-      <c r="AG80" s="168"/>
-      <c r="AH80" s="168"/>
-      <c r="AI80" s="169"/>
-      <c r="AJ80" s="176" t="s">
+      <c r="S80" s="159"/>
+      <c r="T80" s="159"/>
+      <c r="U80" s="159"/>
+      <c r="V80" s="159"/>
+      <c r="W80" s="159"/>
+      <c r="X80" s="159"/>
+      <c r="Y80" s="159"/>
+      <c r="Z80" s="159"/>
+      <c r="AA80" s="159"/>
+      <c r="AB80" s="159"/>
+      <c r="AC80" s="159"/>
+      <c r="AD80" s="159"/>
+      <c r="AE80" s="159"/>
+      <c r="AF80" s="159"/>
+      <c r="AG80" s="159"/>
+      <c r="AH80" s="159"/>
+      <c r="AI80" s="160"/>
+      <c r="AJ80" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK80" s="144"/>
-      <c r="AL80" s="144"/>
-      <c r="AM80" s="144"/>
-      <c r="AN80" s="144"/>
-      <c r="AO80" s="144"/>
-      <c r="AP80" s="144"/>
-      <c r="AQ80" s="144"/>
-      <c r="AR80" s="144"/>
-      <c r="AS80" s="144"/>
-      <c r="AT80" s="144"/>
-      <c r="AU80" s="144"/>
-      <c r="AV80" s="144"/>
-      <c r="AW80" s="145"/>
+      <c r="AK80" s="162"/>
+      <c r="AL80" s="162"/>
+      <c r="AM80" s="162"/>
+      <c r="AN80" s="162"/>
+      <c r="AO80" s="162"/>
+      <c r="AP80" s="162"/>
+      <c r="AQ80" s="162"/>
+      <c r="AR80" s="162"/>
+      <c r="AS80" s="162"/>
+      <c r="AT80" s="162"/>
+      <c r="AU80" s="162"/>
+      <c r="AV80" s="162"/>
+      <c r="AW80" s="163"/>
       <c r="AX80" s="18"/>
-      <c r="AY80" s="180" t="s">
+      <c r="AY80" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="AZ80" s="174"/>
-      <c r="BA80" s="174"/>
-      <c r="BB80" s="174"/>
-      <c r="BC80" s="174"/>
-      <c r="BD80" s="174"/>
-      <c r="BE80" s="174"/>
-      <c r="BF80" s="175"/>
+      <c r="AZ80" s="156"/>
+      <c r="BA80" s="156"/>
+      <c r="BB80" s="156"/>
+      <c r="BC80" s="156"/>
+      <c r="BD80" s="156"/>
+      <c r="BE80" s="156"/>
+      <c r="BF80" s="157"/>
       <c r="BG80" s="15"/>
       <c r="BK80" s="16"/>
       <c r="BL80" s="23"/>
@@ -14730,70 +14788,70 @@
       <c r="D84" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="159" t="s">
+      <c r="E84" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="139"/>
-      <c r="G84" s="139"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="139"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="160" t="s">
+      <c r="F84" s="165"/>
+      <c r="G84" s="165"/>
+      <c r="H84" s="165"/>
+      <c r="I84" s="165"/>
+      <c r="J84" s="165"/>
+      <c r="K84" s="165"/>
+      <c r="L84" s="166"/>
+      <c r="M84" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="154"/>
-      <c r="O84" s="154"/>
-      <c r="P84" s="154"/>
-      <c r="Q84" s="155"/>
-      <c r="R84" s="167" t="s">
+      <c r="N84" s="168"/>
+      <c r="O84" s="168"/>
+      <c r="P84" s="168"/>
+      <c r="Q84" s="169"/>
+      <c r="R84" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S84" s="168"/>
-      <c r="T84" s="168"/>
-      <c r="U84" s="168"/>
-      <c r="V84" s="168"/>
-      <c r="W84" s="168"/>
-      <c r="X84" s="168"/>
-      <c r="Y84" s="168"/>
-      <c r="Z84" s="168"/>
-      <c r="AA84" s="168"/>
-      <c r="AB84" s="168"/>
-      <c r="AC84" s="168"/>
-      <c r="AD84" s="168"/>
-      <c r="AE84" s="168"/>
-      <c r="AF84" s="168"/>
-      <c r="AG84" s="168"/>
-      <c r="AH84" s="168"/>
-      <c r="AI84" s="169"/>
-      <c r="AJ84" s="176" t="s">
+      <c r="S84" s="159"/>
+      <c r="T84" s="159"/>
+      <c r="U84" s="159"/>
+      <c r="V84" s="159"/>
+      <c r="W84" s="159"/>
+      <c r="X84" s="159"/>
+      <c r="Y84" s="159"/>
+      <c r="Z84" s="159"/>
+      <c r="AA84" s="159"/>
+      <c r="AB84" s="159"/>
+      <c r="AC84" s="159"/>
+      <c r="AD84" s="159"/>
+      <c r="AE84" s="159"/>
+      <c r="AF84" s="159"/>
+      <c r="AG84" s="159"/>
+      <c r="AH84" s="159"/>
+      <c r="AI84" s="160"/>
+      <c r="AJ84" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK84" s="144"/>
-      <c r="AL84" s="144"/>
-      <c r="AM84" s="144"/>
-      <c r="AN84" s="144"/>
-      <c r="AO84" s="144"/>
-      <c r="AP84" s="144"/>
-      <c r="AQ84" s="144"/>
-      <c r="AR84" s="144"/>
-      <c r="AS84" s="144"/>
-      <c r="AT84" s="144"/>
-      <c r="AU84" s="144"/>
-      <c r="AV84" s="144"/>
-      <c r="AW84" s="145"/>
+      <c r="AK84" s="162"/>
+      <c r="AL84" s="162"/>
+      <c r="AM84" s="162"/>
+      <c r="AN84" s="162"/>
+      <c r="AO84" s="162"/>
+      <c r="AP84" s="162"/>
+      <c r="AQ84" s="162"/>
+      <c r="AR84" s="162"/>
+      <c r="AS84" s="162"/>
+      <c r="AT84" s="162"/>
+      <c r="AU84" s="162"/>
+      <c r="AV84" s="162"/>
+      <c r="AW84" s="163"/>
       <c r="AX84" s="18"/>
-      <c r="AY84" s="180" t="s">
+      <c r="AY84" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="AZ84" s="174"/>
-      <c r="BA84" s="174"/>
-      <c r="BB84" s="174"/>
-      <c r="BC84" s="174"/>
-      <c r="BD84" s="174"/>
-      <c r="BE84" s="174"/>
-      <c r="BF84" s="175"/>
+      <c r="AZ84" s="156"/>
+      <c r="BA84" s="156"/>
+      <c r="BB84" s="156"/>
+      <c r="BC84" s="156"/>
+      <c r="BD84" s="156"/>
+      <c r="BE84" s="156"/>
+      <c r="BF84" s="157"/>
       <c r="BG84" s="15"/>
       <c r="BK84" s="16"/>
       <c r="BL84" s="23"/>
@@ -15868,59 +15926,59 @@
       <c r="D88" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="159" t="s">
+      <c r="E88" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="139"/>
-      <c r="G88" s="139"/>
-      <c r="H88" s="139"/>
-      <c r="I88" s="139"/>
-      <c r="J88" s="139"/>
-      <c r="K88" s="139"/>
-      <c r="L88" s="140"/>
-      <c r="M88" s="160" t="s">
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="166"/>
+      <c r="M88" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N88" s="154"/>
-      <c r="O88" s="154"/>
-      <c r="P88" s="154"/>
-      <c r="Q88" s="155"/>
-      <c r="R88" s="167" t="s">
+      <c r="N88" s="168"/>
+      <c r="O88" s="168"/>
+      <c r="P88" s="168"/>
+      <c r="Q88" s="169"/>
+      <c r="R88" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S88" s="168"/>
-      <c r="T88" s="168"/>
-      <c r="U88" s="168"/>
-      <c r="V88" s="168"/>
-      <c r="W88" s="168"/>
-      <c r="X88" s="168"/>
-      <c r="Y88" s="168"/>
-      <c r="Z88" s="168"/>
-      <c r="AA88" s="168"/>
-      <c r="AB88" s="168"/>
-      <c r="AC88" s="168"/>
-      <c r="AD88" s="168"/>
-      <c r="AE88" s="168"/>
-      <c r="AF88" s="168"/>
-      <c r="AG88" s="168"/>
-      <c r="AH88" s="168"/>
-      <c r="AI88" s="169"/>
-      <c r="AJ88" s="176" t="s">
+      <c r="S88" s="159"/>
+      <c r="T88" s="159"/>
+      <c r="U88" s="159"/>
+      <c r="V88" s="159"/>
+      <c r="W88" s="159"/>
+      <c r="X88" s="159"/>
+      <c r="Y88" s="159"/>
+      <c r="Z88" s="159"/>
+      <c r="AA88" s="159"/>
+      <c r="AB88" s="159"/>
+      <c r="AC88" s="159"/>
+      <c r="AD88" s="159"/>
+      <c r="AE88" s="159"/>
+      <c r="AF88" s="159"/>
+      <c r="AG88" s="159"/>
+      <c r="AH88" s="159"/>
+      <c r="AI88" s="160"/>
+      <c r="AJ88" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK88" s="144"/>
-      <c r="AL88" s="144"/>
-      <c r="AM88" s="144"/>
-      <c r="AN88" s="144"/>
-      <c r="AO88" s="144"/>
-      <c r="AP88" s="144"/>
-      <c r="AQ88" s="144"/>
-      <c r="AR88" s="144"/>
-      <c r="AS88" s="144"/>
-      <c r="AT88" s="144"/>
-      <c r="AU88" s="144"/>
-      <c r="AV88" s="144"/>
-      <c r="AW88" s="145"/>
+      <c r="AK88" s="162"/>
+      <c r="AL88" s="162"/>
+      <c r="AM88" s="162"/>
+      <c r="AN88" s="162"/>
+      <c r="AO88" s="162"/>
+      <c r="AP88" s="162"/>
+      <c r="AQ88" s="162"/>
+      <c r="AR88" s="162"/>
+      <c r="AS88" s="162"/>
+      <c r="AT88" s="162"/>
+      <c r="AU88" s="162"/>
+      <c r="AV88" s="162"/>
+      <c r="AW88" s="163"/>
       <c r="AX88" s="18"/>
       <c r="CK88">
         <v>12</v>
@@ -16263,59 +16321,59 @@
       <c r="D92" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="159" t="s">
+      <c r="E92" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="139"/>
-      <c r="J92" s="139"/>
-      <c r="K92" s="139"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="160" t="s">
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="165"/>
+      <c r="L92" s="166"/>
+      <c r="M92" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="154"/>
-      <c r="O92" s="154"/>
-      <c r="P92" s="154"/>
-      <c r="Q92" s="155"/>
-      <c r="R92" s="167" t="s">
+      <c r="N92" s="168"/>
+      <c r="O92" s="168"/>
+      <c r="P92" s="168"/>
+      <c r="Q92" s="169"/>
+      <c r="R92" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S92" s="168"/>
-      <c r="T92" s="168"/>
-      <c r="U92" s="168"/>
-      <c r="V92" s="168"/>
-      <c r="W92" s="168"/>
-      <c r="X92" s="168"/>
-      <c r="Y92" s="168"/>
-      <c r="Z92" s="168"/>
-      <c r="AA92" s="168"/>
-      <c r="AB92" s="168"/>
-      <c r="AC92" s="168"/>
-      <c r="AD92" s="168"/>
-      <c r="AE92" s="168"/>
-      <c r="AF92" s="168"/>
-      <c r="AG92" s="168"/>
-      <c r="AH92" s="168"/>
-      <c r="AI92" s="169"/>
-      <c r="AJ92" s="176" t="s">
+      <c r="S92" s="159"/>
+      <c r="T92" s="159"/>
+      <c r="U92" s="159"/>
+      <c r="V92" s="159"/>
+      <c r="W92" s="159"/>
+      <c r="X92" s="159"/>
+      <c r="Y92" s="159"/>
+      <c r="Z92" s="159"/>
+      <c r="AA92" s="159"/>
+      <c r="AB92" s="159"/>
+      <c r="AC92" s="159"/>
+      <c r="AD92" s="159"/>
+      <c r="AE92" s="159"/>
+      <c r="AF92" s="159"/>
+      <c r="AG92" s="159"/>
+      <c r="AH92" s="159"/>
+      <c r="AI92" s="160"/>
+      <c r="AJ92" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK92" s="144"/>
-      <c r="AL92" s="144"/>
-      <c r="AM92" s="144"/>
-      <c r="AN92" s="144"/>
-      <c r="AO92" s="144"/>
-      <c r="AP92" s="144"/>
-      <c r="AQ92" s="144"/>
-      <c r="AR92" s="144"/>
-      <c r="AS92" s="144"/>
-      <c r="AT92" s="144"/>
-      <c r="AU92" s="144"/>
-      <c r="AV92" s="144"/>
-      <c r="AW92" s="145"/>
+      <c r="AK92" s="162"/>
+      <c r="AL92" s="162"/>
+      <c r="AM92" s="162"/>
+      <c r="AN92" s="162"/>
+      <c r="AO92" s="162"/>
+      <c r="AP92" s="162"/>
+      <c r="AQ92" s="162"/>
+      <c r="AR92" s="162"/>
+      <c r="AS92" s="162"/>
+      <c r="AT92" s="162"/>
+      <c r="AU92" s="162"/>
+      <c r="AV92" s="162"/>
+      <c r="AW92" s="163"/>
       <c r="AX92" s="18"/>
     </row>
     <row r="93" spans="2:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16656,59 +16714,59 @@
       <c r="D96" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="159" t="s">
+      <c r="E96" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="139"/>
-      <c r="G96" s="139"/>
-      <c r="H96" s="139"/>
-      <c r="I96" s="139"/>
-      <c r="J96" s="139"/>
-      <c r="K96" s="139"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="160" t="s">
+      <c r="F96" s="165"/>
+      <c r="G96" s="165"/>
+      <c r="H96" s="165"/>
+      <c r="I96" s="165"/>
+      <c r="J96" s="165"/>
+      <c r="K96" s="165"/>
+      <c r="L96" s="166"/>
+      <c r="M96" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="154"/>
-      <c r="O96" s="154"/>
-      <c r="P96" s="154"/>
-      <c r="Q96" s="155"/>
-      <c r="R96" s="167" t="s">
+      <c r="N96" s="168"/>
+      <c r="O96" s="168"/>
+      <c r="P96" s="168"/>
+      <c r="Q96" s="169"/>
+      <c r="R96" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="S96" s="168"/>
-      <c r="T96" s="168"/>
-      <c r="U96" s="168"/>
-      <c r="V96" s="168"/>
-      <c r="W96" s="168"/>
-      <c r="X96" s="168"/>
-      <c r="Y96" s="168"/>
-      <c r="Z96" s="168"/>
-      <c r="AA96" s="168"/>
-      <c r="AB96" s="168"/>
-      <c r="AC96" s="168"/>
-      <c r="AD96" s="168"/>
-      <c r="AE96" s="168"/>
-      <c r="AF96" s="168"/>
-      <c r="AG96" s="168"/>
-      <c r="AH96" s="168"/>
-      <c r="AI96" s="169"/>
-      <c r="AJ96" s="176" t="s">
+      <c r="S96" s="159"/>
+      <c r="T96" s="159"/>
+      <c r="U96" s="159"/>
+      <c r="V96" s="159"/>
+      <c r="W96" s="159"/>
+      <c r="X96" s="159"/>
+      <c r="Y96" s="159"/>
+      <c r="Z96" s="159"/>
+      <c r="AA96" s="159"/>
+      <c r="AB96" s="159"/>
+      <c r="AC96" s="159"/>
+      <c r="AD96" s="159"/>
+      <c r="AE96" s="159"/>
+      <c r="AF96" s="159"/>
+      <c r="AG96" s="159"/>
+      <c r="AH96" s="159"/>
+      <c r="AI96" s="160"/>
+      <c r="AJ96" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AK96" s="144"/>
-      <c r="AL96" s="144"/>
-      <c r="AM96" s="144"/>
-      <c r="AN96" s="144"/>
-      <c r="AO96" s="144"/>
-      <c r="AP96" s="144"/>
-      <c r="AQ96" s="144"/>
-      <c r="AR96" s="144"/>
-      <c r="AS96" s="144"/>
-      <c r="AT96" s="144"/>
-      <c r="AU96" s="144"/>
-      <c r="AV96" s="144"/>
-      <c r="AW96" s="145"/>
+      <c r="AK96" s="162"/>
+      <c r="AL96" s="162"/>
+      <c r="AM96" s="162"/>
+      <c r="AN96" s="162"/>
+      <c r="AO96" s="162"/>
+      <c r="AP96" s="162"/>
+      <c r="AQ96" s="162"/>
+      <c r="AR96" s="162"/>
+      <c r="AS96" s="162"/>
+      <c r="AT96" s="162"/>
+      <c r="AU96" s="162"/>
+      <c r="AV96" s="162"/>
+      <c r="AW96" s="163"/>
       <c r="AX96" s="18"/>
       <c r="BA96" s="49"/>
       <c r="BB96" s="49"/>
@@ -18027,23 +18085,23 @@
       <c r="D106" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="143"/>
-      <c r="G106" s="143"/>
-      <c r="H106" s="143"/>
-      <c r="I106" s="143"/>
-      <c r="J106" s="143"/>
-      <c r="K106" s="143"/>
-      <c r="L106" s="143"/>
-      <c r="M106" s="143" t="s">
+      <c r="E106" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="150"/>
+      <c r="L106" s="150"/>
+      <c r="M106" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="N106" s="143"/>
-      <c r="O106" s="143"/>
-      <c r="P106" s="143"/>
-      <c r="Q106" s="143"/>
+      <c r="N106" s="150"/>
+      <c r="O106" s="150"/>
+      <c r="P106" s="150"/>
+      <c r="Q106" s="150"/>
     </row>
     <row r="107" spans="3:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="9">
@@ -18141,25 +18199,25 @@
       <c r="D111" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="143"/>
-      <c r="G111" s="143"/>
-      <c r="H111" s="143"/>
-      <c r="I111" s="143"/>
-      <c r="J111" s="143"/>
-      <c r="K111" s="143"/>
-      <c r="L111" s="162"/>
-      <c r="M111" s="163" t="s">
+      <c r="E111" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="150"/>
+      <c r="G111" s="150"/>
+      <c r="H111" s="150"/>
+      <c r="I111" s="150"/>
+      <c r="J111" s="150"/>
+      <c r="K111" s="150"/>
+      <c r="L111" s="177"/>
+      <c r="M111" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="N111" s="164"/>
-      <c r="O111" s="164"/>
-      <c r="P111" s="164"/>
-      <c r="Q111" s="164"/>
-      <c r="R111" s="165"/>
-      <c r="S111" s="166"/>
+      <c r="N111" s="146"/>
+      <c r="O111" s="146"/>
+      <c r="P111" s="146"/>
+      <c r="Q111" s="146"/>
+      <c r="R111" s="178"/>
+      <c r="S111" s="179"/>
       <c r="T111" t="s">
         <v>36</v>
       </c>
@@ -18270,44 +18328,39 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AT26:BA26"/>
-    <mergeCell ref="BC26:BJ26"/>
-    <mergeCell ref="BL26:BO26"/>
-    <mergeCell ref="BP26:BS26"/>
-    <mergeCell ref="AK38:AR38"/>
-    <mergeCell ref="AT38:BA38"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="E38:L38"/>
-    <mergeCell ref="B50:B60"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="AY84:BF84"/>
-    <mergeCell ref="AY80:BF80"/>
-    <mergeCell ref="AY76:BF76"/>
-    <mergeCell ref="AY72:BF72"/>
-    <mergeCell ref="R72:AI72"/>
-    <mergeCell ref="AJ72:AW72"/>
-    <mergeCell ref="E84:L84"/>
-    <mergeCell ref="M84:Q84"/>
-    <mergeCell ref="R84:AI84"/>
-    <mergeCell ref="R88:AI88"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="S38:Z38"/>
-    <mergeCell ref="AB38:AI38"/>
-    <mergeCell ref="AJ96:AW96"/>
-    <mergeCell ref="AJ92:AW92"/>
-    <mergeCell ref="AJ88:AW88"/>
-    <mergeCell ref="AJ80:AW80"/>
-    <mergeCell ref="AJ76:AW76"/>
-    <mergeCell ref="AJ84:AW84"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="DE14:DL14"/>
+    <mergeCell ref="DN14:DU14"/>
+    <mergeCell ref="DW14:ED14"/>
+    <mergeCell ref="EF14:EM14"/>
+    <mergeCell ref="EO14:EV14"/>
+    <mergeCell ref="BL48:BS48"/>
+    <mergeCell ref="BU48:CB48"/>
+    <mergeCell ref="CD48:CK48"/>
+    <mergeCell ref="CM48:CT48"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AB48:AI48"/>
+    <mergeCell ref="AK48:AR48"/>
+    <mergeCell ref="AT48:BA48"/>
+    <mergeCell ref="BC48:BJ48"/>
+    <mergeCell ref="BU38:CB38"/>
+    <mergeCell ref="CD38:CK38"/>
+    <mergeCell ref="CM38:CT38"/>
+    <mergeCell ref="BC38:BJ38"/>
+    <mergeCell ref="BL38:BS38"/>
+    <mergeCell ref="BL14:BS14"/>
+    <mergeCell ref="E106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="E111:L111"/>
+    <mergeCell ref="M111:S111"/>
+    <mergeCell ref="E88:L88"/>
+    <mergeCell ref="M88:Q88"/>
+    <mergeCell ref="E92:L92"/>
+    <mergeCell ref="M92:Q92"/>
+    <mergeCell ref="R92:AI92"/>
+    <mergeCell ref="R96:AI96"/>
+    <mergeCell ref="E96:L96"/>
+    <mergeCell ref="M96:Q96"/>
     <mergeCell ref="BU14:CB14"/>
     <mergeCell ref="CD14:CK14"/>
     <mergeCell ref="CM14:CT14"/>
@@ -18324,22 +18377,26 @@
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="S26:Z26"/>
     <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="AJ96:AW96"/>
+    <mergeCell ref="AJ92:AW92"/>
+    <mergeCell ref="AJ88:AW88"/>
+    <mergeCell ref="AJ80:AW80"/>
+    <mergeCell ref="AJ76:AW76"/>
+    <mergeCell ref="AJ84:AW84"/>
+    <mergeCell ref="R88:AI88"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="S38:Z38"/>
     <mergeCell ref="E48:L48"/>
     <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="E106:L106"/>
-    <mergeCell ref="M106:Q106"/>
-    <mergeCell ref="E111:L111"/>
-    <mergeCell ref="M111:S111"/>
-    <mergeCell ref="E88:L88"/>
-    <mergeCell ref="M88:Q88"/>
-    <mergeCell ref="E92:L92"/>
-    <mergeCell ref="M92:Q92"/>
-    <mergeCell ref="R92:AI92"/>
-    <mergeCell ref="R96:AI96"/>
     <mergeCell ref="R80:AI80"/>
     <mergeCell ref="R76:AI76"/>
-    <mergeCell ref="E96:L96"/>
-    <mergeCell ref="M96:Q96"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="E72:L72"/>
     <mergeCell ref="E76:L76"/>
@@ -18347,27 +18404,28 @@
     <mergeCell ref="M72:Q72"/>
     <mergeCell ref="M76:Q76"/>
     <mergeCell ref="M80:Q80"/>
-    <mergeCell ref="BL48:BS48"/>
-    <mergeCell ref="BU48:CB48"/>
-    <mergeCell ref="CD48:CK48"/>
-    <mergeCell ref="CM48:CT48"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="AB48:AI48"/>
-    <mergeCell ref="AK48:AR48"/>
-    <mergeCell ref="AT48:BA48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BU38:CB38"/>
-    <mergeCell ref="CD38:CK38"/>
-    <mergeCell ref="CM38:CT38"/>
-    <mergeCell ref="BC38:BJ38"/>
-    <mergeCell ref="BL38:BS38"/>
-    <mergeCell ref="BL14:BS14"/>
-    <mergeCell ref="DE14:DL14"/>
-    <mergeCell ref="DN14:DU14"/>
-    <mergeCell ref="DW14:ED14"/>
-    <mergeCell ref="EF14:EM14"/>
-    <mergeCell ref="EO14:EV14"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="AY84:BF84"/>
+    <mergeCell ref="AY80:BF80"/>
+    <mergeCell ref="AY76:BF76"/>
+    <mergeCell ref="AY72:BF72"/>
+    <mergeCell ref="R72:AI72"/>
+    <mergeCell ref="AJ72:AW72"/>
+    <mergeCell ref="E84:L84"/>
+    <mergeCell ref="M84:Q84"/>
+    <mergeCell ref="R84:AI84"/>
+    <mergeCell ref="BP26:BS26"/>
+    <mergeCell ref="AK38:AR38"/>
+    <mergeCell ref="AT38:BA38"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AT26:BA26"/>
+    <mergeCell ref="BC26:BJ26"/>
+    <mergeCell ref="BL26:BO26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" scale="30" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
